--- a/文档/文档/系统.xlsx
+++ b/文档/文档/系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统构架" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="468">
   <si>
     <t>2.1 货币介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1233,10 +1233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宿舍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1254,10 +1250,6 @@
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1607,12 +1599,380 @@
     <t>downatk,0.11,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>系统概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个种类的家具都增加一定值的舒适度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒适度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破烂的桌子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.玩家初始拥有一套简易家具。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间场景由，地板、地毯、墙壁、床、桌子、墙壁挂饰 6种类型组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间拥有独立的舒适度系统，放置人物在该区域挂机获得好感值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.家具通过该系统下的家具商店界面使用金币/钻石解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击出现的齿轮图标进入家具更换界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击任何非该家具碰撞体区域，则该UI消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中框。  已选用的家具无法选中。初始默认选中该行第二个选项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排列规则：1.已选用的家具在该窗口默认排列第一位。 2.排列顺寻按表格顺序读取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击选用按钮，则该弹窗消失，程序根据用户选择的家具进行资源替换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消按钮，点击后不进行更换家具操作，且该弹窗消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解锁家具信息： 家具名称，该家具的舒适度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解锁家具：该区域加一层黑色遮罩，不显示该家具的舒适度，该家具名称处替换为解锁条件显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具的更换,解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.点击该界面的家具，弹出设置UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.在家具更换界面种选择已拥有的该类型家具，点击确认完成更换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该区域为家具展示/休息人员展示区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物活动逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家配置在该房间休息的人员出现在地面展示区域内，播放待机/走动动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)播放待机动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3播放该人物走动动画，移动至该地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）行至该地点后，播放待机动画，等待3~10s，继续回到步骤1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5）若玩家点击/拖动了该人物，中断该人物行为，在此状态下仅播放待机动画，直至用户取消操作，后回到步骤1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)选择自身xy轴±x码的圆形区域内随机选择一个地点.（该点不能是家具或同场景其他人物的碰撞体区域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该区域展示目前房间内，所有家具的舒适度加成数值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该区域显示目前所在的房间编号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该按钮弹出上拉框。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家最多可创建4间房间，编号为01-04. 初始系统默认解锁01号房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击下拉框内的创建按钮，弹出弹窗提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个房间内的家具不通用，需要单独解锁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该按钮弹出角色选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选中的训练随从显示：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.该随从的形象及待机动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.该随从的心情值等级，以及心情值经验值进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解锁休息栏位但还未选择随从时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.加号提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.点击该窗口跳转至随从背包界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解锁休息栏位时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.锁图标提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.点击该窗口弹出提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡面信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.卡牌成长等级：C/B/A/S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.卡牌等级：数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.卡牌属性：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.卡牌星级：1-5星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索状态下的随从无法参与休息以及编队。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在休息窗口点击探索中的随从时，弹出提示“该随从正在探险中”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击非探索中状态的随从，该界面关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*休息窗口处替换成选择的随从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第x编队：根据该随从所在的编队。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索中，该随从正在执行探险时出现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.卡牌状态信息： </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选择：仅在该界面中出现，代表休息栏位中已有的随从。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*若点击有-已选择-状态的随从，则休息窗口处该随从取消显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感值上限为100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感值为100或溢出时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物好感等级+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感值进度刷新，有溢出值则+溢出值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*满100时可开启契约功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒适度/好感值公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感值/min =舒适度*1) / 1440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间系统内的人物好感值提升时，浮现UI。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间系统内的人物可拖动提起，松手放开。 只可以在地面区域摆放。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化泉水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化泉水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1777,8 +2137,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1800,6 +2166,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,7 +2328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2023,6 +2395,23 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2047,18 +2436,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16646,6 +17032,1905 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485735</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="矩形 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143626" y="65436749"/>
+          <a:ext cx="1609684" cy="2857501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>70836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68380</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>83230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="矩形 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="67441161"/>
+          <a:ext cx="677980" cy="374344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>桌子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>157891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>221406</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>99577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="椭圆形标注 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143751" y="66985291"/>
+          <a:ext cx="345230" cy="303636"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>34412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171617</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>29518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="67042787"/>
+          <a:ext cx="228767" cy="176081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132918</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>123058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="67875150"/>
+          <a:ext cx="3457143" cy="6133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直接箭头连接符 82"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3914775" y="70389750"/>
+          <a:ext cx="1676400" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="直接箭头连接符 153"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3914775" y="70818375"/>
+          <a:ext cx="1724025" cy="609601"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>171453</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="直接箭头连接符 154"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3990975" y="71285100"/>
+          <a:ext cx="1695450" cy="419103"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>57154</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="直接箭头连接符 157"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3724275" y="71761350"/>
+          <a:ext cx="1933575" cy="371479"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>47629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="直接箭头连接符 169"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3752850" y="72113775"/>
+          <a:ext cx="1933575" cy="371479"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="直接箭头连接符 172"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3609975" y="69494400"/>
+          <a:ext cx="1990725" cy="1162051"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="直接箭头连接符 174"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4448175" y="69799200"/>
+          <a:ext cx="1200150" cy="838202"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>64932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="图片 121"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="74742675"/>
+          <a:ext cx="3371849" cy="6084732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="矩形 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="75218925"/>
+          <a:ext cx="3305175" cy="4629150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直接箭头连接符 124"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3905250" y="75095100"/>
+          <a:ext cx="1676400" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>440</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直接箭头连接符 126"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2438400" y="77181075"/>
+          <a:ext cx="3267075" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="直接箭头连接符 176"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3629025" y="77781150"/>
+          <a:ext cx="2066925" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="矩形 192"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705475" y="78486000"/>
+          <a:ext cx="4000500" cy="2257425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="矩形 194"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="78476475"/>
+          <a:ext cx="4000500" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>拓展</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3076575" cy="578748"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="文本框 196"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172199" y="79562326"/>
+          <a:ext cx="3076575" cy="578748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>确定花费 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>xx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>钻石 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>拓展一个新的房间</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>吗？</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="矩形 197"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277100" y="80314800"/>
+          <a:ext cx="1038225" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>钻石 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>300</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="矩形 130"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="78486000"/>
+          <a:ext cx="419100" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直接箭头连接符 133"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="80686275"/>
+          <a:ext cx="3295650" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>56623</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>170508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="图片 135"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11449050" y="81905475"/>
+          <a:ext cx="4219048" cy="7533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>513832</xdr:colOff>
+      <xdr:row>492</xdr:row>
+      <xdr:rowOff>170513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="图片 137"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="82124550"/>
+          <a:ext cx="4142857" cy="7495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>474</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直接箭头连接符 139"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2019300" y="84077175"/>
+          <a:ext cx="3676650" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>469</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="200" name="直接箭头连接符 199"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3143250" y="85401150"/>
+          <a:ext cx="2581275" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="201" name="直接箭头连接符 200"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="86077425"/>
+          <a:ext cx="1504950" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="矩形 201"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="86115525"/>
+          <a:ext cx="4000500" cy="2257425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>478</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="矩形 202"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="86106000"/>
+          <a:ext cx="4000500" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3076575" cy="578748"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="文本框 203"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343649" y="87191851"/>
+          <a:ext cx="3076575" cy="578748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>确定花费 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>xx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>钻石 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>拓展一个新的栏位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>吗？</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="矩形 204"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="87944325"/>
+          <a:ext cx="1038225" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>钻石 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>300</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>478</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="矩形 205"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="86115525"/>
+          <a:ext cx="419100" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>467</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="直接箭头连接符 156"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8734425" y="84553425"/>
+          <a:ext cx="2552700" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="直接箭头连接符 206"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14678025" y="82486500"/>
+          <a:ext cx="1504950" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="780727" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="文本框 208"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13249275" y="84010500"/>
+          <a:ext cx="780727" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>已选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>--</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17722,26 +20007,26 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B170" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="C170" s="51"/>
-      <c r="D170" s="51"/>
-      <c r="E170" s="51"/>
-      <c r="F170" s="51"/>
-      <c r="G170" s="51"/>
-      <c r="H170" s="51"/>
+      <c r="B170" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="C170" s="43"/>
+      <c r="D170" s="43"/>
+      <c r="E170" s="43"/>
+      <c r="F170" s="43"/>
+      <c r="G170" s="43"/>
+      <c r="H170" s="43"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B171" s="51"/>
-      <c r="C171" s="51" t="s">
+      <c r="B171" s="43"/>
+      <c r="C171" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D171" s="51"/>
-      <c r="E171" s="51"/>
-      <c r="F171" s="51"/>
-      <c r="G171" s="51"/>
-      <c r="H171" s="51"/>
+      <c r="D171" s="43"/>
+      <c r="E171" s="43"/>
+      <c r="F171" s="43"/>
+      <c r="G171" s="43"/>
+      <c r="H171" s="43"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B173" s="2" t="s">
@@ -17773,10 +20058,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S362"/>
+  <dimension ref="A1:Z516"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G316" sqref="G316"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="R505" sqref="R505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17784,7 +20069,9 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="8" width="9" style="2"/>
+    <col min="4" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
     <col min="12" max="12" width="9.875" style="2" customWidth="1"/>
@@ -17985,7 +20272,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H100" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -18465,7 +20752,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B189" s="28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
@@ -18906,22 +21193,473 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G312" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F350" s="48"/>
+    </row>
+    <row r="351" spans="1:6" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="34" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A355" s="34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G362" s="2" t="s">
-        <v>296</v>
+        <v>378</v>
+      </c>
+      <c r="B351" s="61"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B354" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B357" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B358" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B360" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="C360" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="D360" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="E360" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="F360" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="G360" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="H360" s="49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B361" s="21">
+        <v>10001</v>
+      </c>
+      <c r="C361" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D361" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E361" s="21">
+        <v>6</v>
+      </c>
+      <c r="F361" s="21">
+        <v>10</v>
+      </c>
+      <c r="G361" s="24"/>
+      <c r="H361" s="21"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B365" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C366" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C367" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C368" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="369" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D369" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="370" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D370" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="372" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C372" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="382" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I382" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="384" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I384" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="387" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I387" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="389" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I389" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="392" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I392" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="395" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I395" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="397" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I397" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I413" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I414" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J415" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J416" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="417" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="K417" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="418" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="K418" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="419" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="K419" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="420" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="K420" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="421" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="K421" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="425" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I425" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="428" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I428" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="429" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I429" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="430" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I430" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="431" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I431" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="434" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="O434" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="P434" s="60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="435" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="O435" s="21">
+        <v>1</v>
+      </c>
+      <c r="P435" s="21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="436" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="O436" s="21">
+        <v>2</v>
+      </c>
+      <c r="P436" s="21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="437" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="O437" s="21">
+        <v>3</v>
+      </c>
+      <c r="P437" s="21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="438" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="O438" s="21">
+        <v>4</v>
+      </c>
+      <c r="P438" s="21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="446" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I446" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="449" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="I449" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="450" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="J450" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="454" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="X454" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="455" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="Y455" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="456" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="Y456" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="457" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="Y457" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="458" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="Y458" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="459" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="Z459" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="460" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="Z460" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="461" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="Z461" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="462" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="Y462" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="464" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="X464" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="466" spans="9:25" x14ac:dyDescent="0.2">
+      <c r="I466" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="X466" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="467" spans="9:25" x14ac:dyDescent="0.2">
+      <c r="J467" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="468" spans="9:25" x14ac:dyDescent="0.2">
+      <c r="J468" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="X468" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="469" spans="9:25" x14ac:dyDescent="0.2">
+      <c r="Y469" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="470" spans="9:25" x14ac:dyDescent="0.2">
+      <c r="I470" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y470" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="471" spans="9:25" x14ac:dyDescent="0.2">
+      <c r="J471" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="472" spans="9:25" x14ac:dyDescent="0.2">
+      <c r="J472" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="474" spans="9:25" x14ac:dyDescent="0.2">
+      <c r="I474" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="475" spans="9:25" x14ac:dyDescent="0.2">
+      <c r="J475" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="476" spans="9:25" x14ac:dyDescent="0.2">
+      <c r="J476" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B497" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C498" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C499" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D500" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D501" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B503" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="504" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C504" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="507" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B507" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="508" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C508" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="510" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B510" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="511" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C511" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="512" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C512" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" s="62" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A514" s="63" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C516" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -18936,8 +21674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18952,12 +21690,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -18965,437 +21703,437 @@
         <v>172</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="39" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="39" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" s="53" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" s="39" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="55" t="s">
-        <v>348</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="55" t="s">
-        <v>352</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>353</v>
-      </c>
-    </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="55" t="s">
-        <v>367</v>
+      <c r="A33" s="47" t="s">
+        <v>365</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="55" t="s">
-        <v>375</v>
+      <c r="A34" s="47" t="s">
+        <v>373</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="J43" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="K43" s="44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="B43" s="52" t="s">
-        <v>331</v>
-      </c>
-      <c r="C43" s="52" t="s">
+      <c r="C44" s="44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="44">
+        <v>6</v>
+      </c>
+      <c r="E44" s="44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="44">
+        <v>3</v>
+      </c>
+      <c r="G44" s="44">
+        <v>2</v>
+      </c>
+      <c r="H44" s="44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="D43" s="52" t="s">
-        <v>338</v>
-      </c>
-      <c r="E43" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="H43" s="52" t="s">
-        <v>340</v>
-      </c>
-      <c r="I43" s="52" t="s">
-        <v>337</v>
-      </c>
-      <c r="J43" s="52" t="s">
+      <c r="J44" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="K43" s="52" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="C44" s="52">
+      <c r="K44" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C45" s="44">
+        <v>7</v>
+      </c>
+      <c r="D45" s="44">
+        <v>8</v>
+      </c>
+      <c r="E45" s="44">
+        <v>1</v>
+      </c>
+      <c r="F45" s="44">
         <v>3</v>
       </c>
-      <c r="D44" s="52">
+      <c r="G45" s="44">
+        <v>1</v>
+      </c>
+      <c r="H45" s="44">
+        <v>1</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="J45" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="K45" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" s="44">
+        <v>18</v>
+      </c>
+      <c r="D46" s="44">
+        <v>20</v>
+      </c>
+      <c r="E46" s="44">
+        <v>1</v>
+      </c>
+      <c r="F46" s="44">
+        <v>5</v>
+      </c>
+      <c r="G46" s="44">
+        <v>3</v>
+      </c>
+      <c r="H46" s="44">
+        <v>4</v>
+      </c>
+      <c r="I46" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="J46" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="K46" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="44">
+        <v>7</v>
+      </c>
+      <c r="D47" s="44">
+        <v>8</v>
+      </c>
+      <c r="E47" s="44">
+        <v>1</v>
+      </c>
+      <c r="F47" s="44">
+        <v>3</v>
+      </c>
+      <c r="G47" s="44">
+        <v>7</v>
+      </c>
+      <c r="H47" s="44">
+        <v>3</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="J47" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="K47" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="C48" s="44">
+        <v>13</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E48" s="44">
+        <v>1</v>
+      </c>
+      <c r="F48" s="44">
+        <v>5</v>
+      </c>
+      <c r="G48" s="44">
+        <v>8</v>
+      </c>
+      <c r="H48" s="44">
+        <v>0</v>
+      </c>
+      <c r="I48" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="J48" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="K48" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="C49" s="44">
         <v>6</v>
       </c>
-      <c r="E44" s="52">
+      <c r="D49" s="44">
+        <v>12</v>
+      </c>
+      <c r="E49" s="44">
         <v>1</v>
       </c>
-      <c r="F44" s="52">
-        <v>3</v>
-      </c>
-      <c r="G44" s="52">
-        <v>2</v>
-      </c>
-      <c r="H44" s="52">
+      <c r="F49" s="44">
+        <v>5</v>
+      </c>
+      <c r="G49" s="44">
         <v>1</v>
       </c>
-      <c r="I44" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="J44" s="52" t="s">
-        <v>344</v>
-      </c>
-      <c r="K44" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
-        <v>345</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>346</v>
-      </c>
-      <c r="C45" s="52">
-        <v>7</v>
-      </c>
-      <c r="D45" s="52">
-        <v>8</v>
-      </c>
-      <c r="E45" s="52">
+      <c r="H49" s="44">
         <v>1</v>
       </c>
-      <c r="F45" s="52">
-        <v>3</v>
-      </c>
-      <c r="G45" s="52">
-        <v>1</v>
-      </c>
-      <c r="H45" s="52">
-        <v>1</v>
-      </c>
-      <c r="I45" s="52" t="s">
-        <v>347</v>
-      </c>
-      <c r="J45" s="52" t="s">
-        <v>350</v>
-      </c>
-      <c r="K45" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52" t="s">
-        <v>354</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>355</v>
-      </c>
-      <c r="C46" s="52">
-        <v>18</v>
-      </c>
-      <c r="D46" s="52">
-        <v>20</v>
-      </c>
-      <c r="E46" s="52">
-        <v>1</v>
-      </c>
-      <c r="F46" s="52">
-        <v>5</v>
-      </c>
-      <c r="G46" s="52">
-        <v>3</v>
-      </c>
-      <c r="H46" s="52">
-        <v>4</v>
-      </c>
-      <c r="I46" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="J46" s="52" t="s">
-        <v>357</v>
-      </c>
-      <c r="K46" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>359</v>
-      </c>
-      <c r="C47" s="52">
-        <v>7</v>
-      </c>
-      <c r="D47" s="52">
-        <v>8</v>
-      </c>
-      <c r="E47" s="52">
-        <v>1</v>
-      </c>
-      <c r="F47" s="52">
-        <v>3</v>
-      </c>
-      <c r="G47" s="52">
-        <v>7</v>
-      </c>
-      <c r="H47" s="52">
-        <v>3</v>
-      </c>
-      <c r="I47" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="J47" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="K47" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>364</v>
-      </c>
-      <c r="C48" s="52">
-        <v>13</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="E48" s="52">
-        <v>1</v>
-      </c>
-      <c r="F48" s="52">
-        <v>5</v>
-      </c>
-      <c r="G48" s="52">
-        <v>8</v>
-      </c>
-      <c r="H48" s="52">
-        <v>0</v>
-      </c>
-      <c r="I48" s="52" t="s">
-        <v>363</v>
-      </c>
-      <c r="J48" s="52" t="s">
-        <v>372</v>
-      </c>
-      <c r="K48" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52" t="s">
+      <c r="I49" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="B49" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="C49" s="52">
-        <v>6</v>
-      </c>
-      <c r="D49" s="52">
-        <v>12</v>
-      </c>
-      <c r="E49" s="52">
-        <v>1</v>
-      </c>
-      <c r="F49" s="52">
-        <v>5</v>
-      </c>
-      <c r="G49" s="52">
-        <v>1</v>
-      </c>
-      <c r="H49" s="52">
-        <v>1</v>
-      </c>
-      <c r="I49" s="52" t="s">
+      <c r="J49" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="J49" s="52" t="s">
-        <v>373</v>
-      </c>
-      <c r="K49" s="52" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="K49" s="44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19514,10 +22252,10 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -19527,8 +22265,8 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
@@ -19536,8 +22274,8 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
@@ -19546,8 +22284,8 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
@@ -19555,8 +22293,8 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -19564,8 +22302,8 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
@@ -19573,8 +22311,8 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -19582,53 +22320,53 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="53"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>

--- a/文档/文档/系统.xlsx
+++ b/文档/文档/系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="系统构架" sheetId="1" r:id="rId1"/>
@@ -1948,10 +1948,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间系统内的人物好感值提升时，浮现UI。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房间系统内的人物可拖动提起，松手放开。 只可以在地面区域摆放。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1965,6 +1961,10 @@
   </si>
   <si>
     <t>净化泉水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间系统内的人物好感值提升时，浮现好感值增加的UI。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2412,6 +2412,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2436,15 +2445,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2487,7 +2487,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5832BC66-A45A-41C9-B4A8-4001193C1D24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5832BC66-A45A-41C9-B4A8-4001193C1D24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2542,7 @@
         <xdr:cNvPr id="125" name="矩形 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2602,7 @@
         <xdr:cNvPr id="2" name="矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2662,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2BF022-23A6-467A-81E1-19EC305EFC34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B2BF022-23A6-467A-81E1-19EC305EFC34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2725,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B100BD83-D85A-4C06-B53A-14C9386E8B03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B100BD83-D85A-4C06-B53A-14C9386E8B03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2797,7 +2797,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51526E19-94A1-4255-A926-245DA024AF87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51526E19-94A1-4255-A926-245DA024AF87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2861,7 @@
         <xdr:cNvPr id="8" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4102E9-C5D8-4C1E-B261-ABCC2D4AF7B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED4102E9-C5D8-4C1E-B261-ABCC2D4AF7B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +2925,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637B0498-9A4D-44DD-BD16-F8DCAA51FCA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{637B0498-9A4D-44DD-BD16-F8DCAA51FCA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2993,7 @@
         <xdr:cNvPr id="12" name="矩形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E914B5-11B4-4AAA-A1EB-D0BECDB26C77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3E914B5-11B4-4AAA-A1EB-D0BECDB26C77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,7 +3074,7 @@
         <xdr:cNvPr id="13" name="矩形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F270FCC1-8F02-4350-AFE0-E3B6E9D52ECF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F270FCC1-8F02-4350-AFE0-E3B6E9D52ECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3140,7 @@
         <xdr:cNvPr id="14" name="文本框 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B31F25-953E-454C-B09B-E0F837A2CC30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78B31F25-953E-454C-B09B-E0F837A2CC30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3215,7 +3215,7 @@
         <xdr:cNvPr id="15" name="矩形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3292,7 +3292,7 @@
         <xdr:cNvPr id="23" name="矩形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3369,7 @@
         <xdr:cNvPr id="24" name="矩形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,7 +3446,7 @@
         <xdr:cNvPr id="25" name="矩形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3523,7 +3523,7 @@
         <xdr:cNvPr id="26" name="矩形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DDE71E-CD2A-43CC-BA95-31DE86EE7B0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21DDE71E-CD2A-43CC-BA95-31DE86EE7B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3586,7 +3586,7 @@
         <xdr:cNvPr id="31" name="矩形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E413CF-E69C-431A-B70B-280EC1DEB644}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20E413CF-E69C-431A-B70B-280EC1DEB644}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3649,7 +3649,7 @@
         <xdr:cNvPr id="32" name="矩形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9BF090-DFAF-4425-86D1-49CFC9E3EE43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E9BF090-DFAF-4425-86D1-49CFC9E3EE43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3717,7 +3717,7 @@
         <xdr:cNvPr id="33" name="箭头: 上弧形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA0E5BC-FE32-45EF-A8D3-9C689F395FDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DA0E5BC-FE32-45EF-A8D3-9C689F395FDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3781,7 +3781,7 @@
         <xdr:cNvPr id="34" name="椭圆 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B59BC8-B668-464B-B188-CE3710D31973}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61B59BC8-B668-464B-B188-CE3710D31973}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3844,7 +3844,7 @@
         <xdr:cNvPr id="35" name="矩形 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3921,7 +3921,7 @@
         <xdr:cNvPr id="36" name="椭圆 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3984,7 +3984,7 @@
         <xdr:cNvPr id="37" name="椭圆 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4047,7 +4047,7 @@
         <xdr:cNvPr id="38" name="箭头: 下弧形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4111,7 +4111,7 @@
         <xdr:cNvPr id="39" name="椭圆 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4174,7 +4174,7 @@
         <xdr:cNvPr id="40" name="矩形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576A5619-A65C-4FEF-A2DC-D1CEBF47BD54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576A5619-A65C-4FEF-A2DC-D1CEBF47BD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4234,7 +4234,7 @@
         <xdr:cNvPr id="44" name="矩形 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4297,7 +4297,7 @@
         <xdr:cNvPr id="59" name="矩形 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0164B002-7831-462F-841D-835A27E9AC33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0164B002-7831-462F-841D-835A27E9AC33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4364,7 +4364,7 @@
         <xdr:cNvPr id="76" name="图片 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13806A2E-D8EB-4CC5-98D1-40F44DF499AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13806A2E-D8EB-4CC5-98D1-40F44DF499AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4408,7 +4408,7 @@
         <xdr:cNvPr id="77" name="图片 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE4DE3A-A508-4CE7-BA67-80B81237A199}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAE4DE3A-A508-4CE7-BA67-80B81237A199}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4452,7 +4452,7 @@
         <xdr:cNvPr id="81" name="矩形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37569F0-1000-4FB2-8F40-F4CD5FDD3624}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A37569F0-1000-4FB2-8F40-F4CD5FDD3624}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4517,7 +4517,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20B7DBC-4C70-4451-B2D6-37F62FEC5869}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C20B7DBC-4C70-4451-B2D6-37F62FEC5869}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4580,7 +4580,7 @@
         <xdr:cNvPr id="83" name="矩形 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E4AAD4-4CC5-46A3-9668-29DBB28D5D20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E4AAD4-4CC5-46A3-9668-29DBB28D5D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4640,7 +4640,7 @@
         <xdr:cNvPr id="84" name="矩形 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4704,7 +4704,7 @@
         <xdr:cNvPr id="85" name="矩形 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF20CFF-8532-42C7-9388-90570096D494}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDF20CFF-8532-42C7-9388-90570096D494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4772,7 +4772,7 @@
         <xdr:cNvPr id="86" name="矩形 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7065E750-85A8-457A-B728-4BA987CE0073}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7065E750-85A8-457A-B728-4BA987CE0073}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4840,7 +4840,7 @@
         <xdr:cNvPr id="87" name="矩形 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD03E14A-9B8F-46A0-96C3-DAF4DB6C8799}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD03E14A-9B8F-46A0-96C3-DAF4DB6C8799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5218,7 +5218,7 @@
         <xdr:cNvPr id="90" name="矩形 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5282,7 +5282,7 @@
         <xdr:cNvPr id="91" name="矩形 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5346,7 +5346,7 @@
         <xdr:cNvPr id="92" name="矩形 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5410,7 +5410,7 @@
         <xdr:cNvPr id="93" name="矩形 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5474,7 +5474,7 @@
         <xdr:cNvPr id="94" name="矩形 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5538,7 +5538,7 @@
         <xdr:cNvPr id="95" name="矩形 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5602,7 +5602,7 @@
         <xdr:cNvPr id="96" name="矩形 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5666,7 +5666,7 @@
         <xdr:cNvPr id="97" name="矩形 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5729,7 +5729,7 @@
         <xdr:cNvPr id="98" name="矩形 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5793,7 +5793,7 @@
         <xdr:cNvPr id="99" name="矩形 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5874,7 +5874,7 @@
         <xdr:cNvPr id="100" name="矩形 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5955,7 +5955,7 @@
         <xdr:cNvPr id="101" name="矩形 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6036,7 +6036,7 @@
         <xdr:cNvPr id="102" name="矩形 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6117,7 +6117,7 @@
         <xdr:cNvPr id="103" name="矩形 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6175,7 +6175,7 @@
         <xdr:cNvPr id="104" name="矩形 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6291,7 +6291,7 @@
         <xdr:cNvPr id="107" name="矩形 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6349,7 +6349,7 @@
         <xdr:cNvPr id="108" name="矩形 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6465,7 +6465,7 @@
         <xdr:cNvPr id="110" name="矩形 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6523,7 +6523,7 @@
         <xdr:cNvPr id="111" name="矩形 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6639,7 +6639,7 @@
         <xdr:cNvPr id="113" name="矩形 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6697,7 +6697,7 @@
         <xdr:cNvPr id="114" name="矩形 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6813,7 +6813,7 @@
         <xdr:cNvPr id="116" name="矩形 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6871,7 +6871,7 @@
         <xdr:cNvPr id="117" name="矩形 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6934,7 +6934,7 @@
         <xdr:cNvPr id="118" name="矩形 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6998,7 +6998,7 @@
         <xdr:cNvPr id="70" name="矩形 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7075,7 +7075,7 @@
         <xdr:cNvPr id="71" name="椭圆 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7138,7 +7138,7 @@
         <xdr:cNvPr id="72" name="椭圆 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7201,7 +7201,7 @@
         <xdr:cNvPr id="73" name="箭头: 下弧形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7265,7 +7265,7 @@
         <xdr:cNvPr id="74" name="椭圆 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8644,7 +8644,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12090,7 +12090,7 @@
         <xdr:cNvPr id="81" name="矩形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12150,7 +12150,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14272,7 +14272,7 @@
         <xdr:cNvPr id="116" name="矩形 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16401,7 +16401,7 @@
         <xdr:cNvPr id="133" name="矩形 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16569,7 +16569,7 @@
         <xdr:cNvPr id="145" name="矩形 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17050,7 +17050,7 @@
         <xdr:cNvPr id="146" name="矩形 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17110,7 +17110,7 @@
         <xdr:cNvPr id="147" name="矩形 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20060,8 +20060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="R505" sqref="R505"/>
+    <sheetView topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="F517" sqref="F517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21203,7 +21203,7 @@
       <c r="A351" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="B351" s="61"/>
+      <c r="B351" s="53"/>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
@@ -21421,10 +21421,10 @@
       </c>
     </row>
     <row r="434" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O434" s="59" t="s">
+      <c r="O434" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="P434" s="60" t="s">
+      <c r="P434" s="52" t="s">
         <v>421</v>
       </c>
     </row>
@@ -21641,25 +21641,25 @@
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C511" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C512" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" s="62" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A514" s="63" t="s">
-        <v>466</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A514" s="55" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C516" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -21674,8 +21674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22252,10 +22252,10 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -22265,8 +22265,8 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
@@ -22274,8 +22274,8 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
@@ -22284,8 +22284,8 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
@@ -22293,8 +22293,8 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -22302,8 +22302,8 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
@@ -22311,8 +22311,8 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -22320,53 +22320,53 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>

--- a/文档/文档/系统.xlsx
+++ b/文档/文档/系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统构架" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="502">
   <si>
     <t>2.1 货币介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,601 +386,585 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>可接数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家接受的悬赏任务数量最大值为4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家拥有未完成的悬赏任务数＝4时，若此时再次选择接受任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>则弹出框提示“可接受的悬赏数达到上限”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬赏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬赏任务相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务等级：C/B/A/S/SSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认刷新时间为12h刷新一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务挑选逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机取这之间的4个任务（不重复）进行排列展示，UI上的排列位置随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机选取时，优先筛除玩家已完成过的任务，之后再进行随机选取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬赏板展示内容由配置表配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击悬赏任务后弹出任务详细弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*冒险队最大上限：5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*单个冒险队最大可配置队员数上限：3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item3值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变相扫荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 根据玩家等级，开放可以远征的区域 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.可以使用条件符合的随从前去远征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.每名队员都拥有独立的远征属性词缀，进行远征需满足所有远征关卡的属性词缀条件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.远征区域属性1-3个随机属性，远征区域属性每天12:00pm刷新一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.用来组建队伍的所有随从属性必须满足和远征区域的属性一致。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.远征完成时，读取相应掉落表，玩家获得奖励。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能掉落显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造需求表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示已解锁的远征区域，以及消耗、用时信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入该界面时默认选中第一个区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该区域显示冒险队列。玩家默认拥有一个队列，扩建队列需要额外的材料及其他限制要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.同一个远征区域可同时派出多支符合条件的队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该区域可滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该区域显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力需求信息（2种状态：已达成、未达成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队员选择（点击队员选择后弹出队员选择界面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.当搭配的随从属性与远征区域拥有的属性一致时，相同属性被激活，最终根据激活属性的数量发放奖励。（读取配置表 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.远征队伍必须满足3名队员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能掉落物品ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出征按钮 2种状态（当玩家战力、区域属性、满足3名人员时按钮才可点击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征区域属性（2种状态：已满足、未满足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗材料产出装备，装备的主要获得途径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类型：武器 护甲 戒指 项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料类型：熔炉材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.可放入熔炉的道具类型：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.每件可放入熔炉的道具都拥有隐藏分子词缀及数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出处显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金(t/d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁(t/d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡(t/d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光(t/d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土(t/d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料1(t/d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料2(t/d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料3(t/d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.判断玩家放入熔炉的道具各分子种类以及数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.根据合成表来判断本次合成种囊括了哪种装备,挑选达标的装备进入产出库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.根据囊括装备的独立获得概率来计算本次掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性克制，攻击方属性克制被攻击方时，伤害方的伤害倍数为1.15.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷属性公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害为攻击方伤害倍数的1.5倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2%初始爆率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若两方敏捷差的绝对值大于80，则向下只取到80</t>
+  </si>
+  <si>
+    <t>攻击方敏捷大于被攻击方敏捷时，区间为(0.8+0.3*敏捷差/80)~1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击方敏捷小于被攻击方敏捷时，区间为0.8~(1.2-0.3*敏捷差/80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害=基本攻击力*攻击伤害比*伤害浮动-防御*防御格挡比*防御浮动)*(1-伤害免疫)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62*0.95*1.2-48*0.25*0.75）*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(物品等级：白、绿、蓝、紫、橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1紫 40min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1蓝 40min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1绿 30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1白 20min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>酒馆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能：小游戏？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可接数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家接受的悬赏任务数量最大值为4.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当玩家拥有未完成的悬赏任务数＝4时，若此时再次选择接受任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>则弹出框提示“可接受的悬赏数达到上限”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬赏板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬赏任务相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务等级：C/B/A/S/SSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认刷新时间为12h刷新一次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务挑选逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机取这之间的4个任务（不重复）进行排列展示，UI上的排列位置随机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机选取时，优先筛除玩家已完成过的任务，之后再进行随机选取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬赏板展示内容由配置表配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击悬赏任务后弹出任务详细弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远征系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远征时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*冒险队最大上限：5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*单个冒险队最大可配置队员数上限：3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item2值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item3值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远征配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远征系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远征任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变相扫荡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远征规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 根据玩家等级，开放可以远征的区域 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.可以使用条件符合的随从前去远征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.每名队员都拥有独立的远征属性词缀，进行远征需满足所有远征关卡的属性词缀条件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.远征区域属性1-3个随机属性，远征区域属性每天12:00pm刷新一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5.用来组建队伍的所有随从属性必须满足和远征区域的属性一致。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.远征完成时，读取相应掉落表，玩家获得奖励。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能掉落显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造需求表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示已解锁的远征区域，以及消耗、用时信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入该界面时默认选中第一个区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该区域显示冒险队列。玩家默认拥有一个队列，扩建队列需要额外的材料及其他限制要求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.同一个远征区域可同时派出多支符合条件的队伍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该区域可滑动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该区域显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力需求信息（2种状态：已达成、未达成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队员选择（点击队员选择后弹出队员选择界面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7.当搭配的随从属性与远征区域拥有的属性一致时，相同属性被激活，最终根据激活属性的数量发放奖励。（读取配置表 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.远征队伍必须满足3名队员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能掉落物品ICON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出征按钮 2种状态（当玩家战力、区域属性、满足3名人员时按钮才可点击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远征区域属性（2种状态：已满足、未满足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘熔炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统概述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗材料产出装备，装备的主要获得途径。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备类型：武器 护甲 戒指 项链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料类型：熔炉材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.可放入熔炉的道具类型：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.每件可放入熔炉的道具都拥有隐藏分子词缀及数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出处显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可否熔炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金(t/d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁(t/d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锡(t/d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光(t/d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土(t/d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料1(t/d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料2(t/d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料3(t/d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.判断玩家放入熔炉的道具各分子种类以及数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.根据合成表来判断本次合成种囊括了哪种装备,挑选达标的装备进入产出库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.根据囊括装备的独立获得概率来计算本次掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性克制，攻击方属性克制被攻击方时，伤害方的伤害倍数为1.15.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷属性公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害为攻击方伤害倍数的1.5倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2%初始爆率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若两方敏捷差的绝对值大于80，则向下只取到80</t>
-  </si>
-  <si>
-    <t>攻击方敏捷大于被攻击方敏捷时，区间为(0.8+0.3*敏捷差/80)~1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击方敏捷小于被攻击方敏捷时，区间为0.8~(1.2-0.3*敏捷差/80)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害浮动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害=基本攻击力*攻击伤害比*伤害浮动-防御*防御格挡比*防御浮动)*(1-伤害免疫)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62*0.95*1.2-48*0.25*0.75）*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(物品等级：白、绿、蓝、紫、橙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.神秘熔炉拥有4个素材放置栏位，必须放满4种素材才可以开启合成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1紫 40min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1蓝 40min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1绿 30min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1白 20min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统概述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币蛋池，钻石蛋池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -993,26 +977,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币蛋池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.每个区域拥有独立的两种金币蛋池，蛋池内容不同。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.根据玩家已解锁的区域来判定该区域的金币蛋池是否解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蛋池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通蛋池1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1069,19 +1037,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进阶蛋池2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础钻石蛋池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>该蛋池包含所有2星-5星蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石蛋池1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1608,10 +1564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每个种类的家具都增加一定值的舒适度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1656,14 +1608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间场景由，地板、地毯、墙壁、床、桌子、墙壁挂饰 6种类型组成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间拥有独立的舒适度系统，放置人物在该区域挂机获得好感值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.家具通过该系统下的家具商店界面使用金币/钻石解锁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1952,19 +1896,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>灵魂石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化泉水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化泉水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房间系统内的人物好感值提升时，浮现好感值增加的UI。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人环流器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅拥有独立的舒适度系统，放置人物在该区域挂机获得好感值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅场景由，地板、地毯、墙壁、床、桌子、墙壁挂饰 6种类型组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家用来净化灵体成为实体的系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.神秘熔炉拥有4个素材放置栏位，必须放满4种素材才可以开启合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石卡池1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石卡池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费货币抽取灵体的地方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币卡池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.每个区域拥有独立的两种金币卡池，卡池内容不同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.根据玩家已解锁的区域来判定该区域的金币卡池是否解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通卡池1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶卡池2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化槽位初始默认开启3个槽位。玩家新增槽位需要消耗一定的钻石以及有等级限制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩建消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币扩建上限5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石扩建上限5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该场景共设定14个槽位上限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月卡栏位*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*根据配置表配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化完成时，该槽位的灵体需体现出净化完成的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击该槽位，播放实体回收动画。完成净化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*需要UI表示体现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*可使用净化加速器来加快净化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该状态需显示净化所需时间倒计时以及进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击加速按钮弹出使用加速道具弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该槽位弹出拓展槽位弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该槽位弹出实体获得弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化完成后该槽位状态转变为 槽位待机状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位上锁状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位净化完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位运行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位待机状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该状态点击弹出个人灵体背包。点击背包内的灵体后，该灵体icon出现在该槽位中。且该槽位状态更变为槽位运行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该处默认显示灵体催化药剂的icon以及名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该处显示玩家选择使用的数量个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该处显示加速时间值，该值受使用个数的影响而变化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币扩建栏位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石扩建栏位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*玩家等级/金币/钻石条件不满足时，对应区域点击无效，且不满足的条件文字变色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2472,25 +2608,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>125657</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171634</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5832BC66-A45A-41C9-B4A8-4001193C1D24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2509,14 +2639,74 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="219074"/>
-          <a:ext cx="12020550" cy="8593383"/>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="10058400" cy="7391584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="2066925"/>
+          <a:ext cx="1409700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2542,7 +2732,7 @@
         <xdr:cNvPr id="125" name="矩形 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2792,7 @@
         <xdr:cNvPr id="2" name="矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2852,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B2BF022-23A6-467A-81E1-19EC305EFC34}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2BF022-23A6-467A-81E1-19EC305EFC34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2915,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B100BD83-D85A-4C06-B53A-14C9386E8B03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B100BD83-D85A-4C06-B53A-14C9386E8B03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2797,7 +2987,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51526E19-94A1-4255-A926-245DA024AF87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51526E19-94A1-4255-A926-245DA024AF87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +3051,7 @@
         <xdr:cNvPr id="8" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED4102E9-C5D8-4C1E-B261-ABCC2D4AF7B3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4102E9-C5D8-4C1E-B261-ABCC2D4AF7B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +3115,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{637B0498-9A4D-44DD-BD16-F8DCAA51FCA7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637B0498-9A4D-44DD-BD16-F8DCAA51FCA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +3183,7 @@
         <xdr:cNvPr id="12" name="矩形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3E914B5-11B4-4AAA-A1EB-D0BECDB26C77}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E914B5-11B4-4AAA-A1EB-D0BECDB26C77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,7 +3264,7 @@
         <xdr:cNvPr id="13" name="矩形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F270FCC1-8F02-4350-AFE0-E3B6E9D52ECF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F270FCC1-8F02-4350-AFE0-E3B6E9D52ECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3330,7 @@
         <xdr:cNvPr id="14" name="文本框 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78B31F25-953E-454C-B09B-E0F837A2CC30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B31F25-953E-454C-B09B-E0F837A2CC30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3215,7 +3405,7 @@
         <xdr:cNvPr id="15" name="矩形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3292,7 +3482,7 @@
         <xdr:cNvPr id="23" name="矩形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3559,7 @@
         <xdr:cNvPr id="24" name="矩形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,7 +3636,7 @@
         <xdr:cNvPr id="25" name="矩形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3523,7 +3713,7 @@
         <xdr:cNvPr id="26" name="矩形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21DDE71E-CD2A-43CC-BA95-31DE86EE7B0B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DDE71E-CD2A-43CC-BA95-31DE86EE7B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3586,7 +3776,7 @@
         <xdr:cNvPr id="31" name="矩形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20E413CF-E69C-431A-B70B-280EC1DEB644}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E413CF-E69C-431A-B70B-280EC1DEB644}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3649,7 +3839,7 @@
         <xdr:cNvPr id="32" name="矩形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E9BF090-DFAF-4425-86D1-49CFC9E3EE43}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9BF090-DFAF-4425-86D1-49CFC9E3EE43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3717,7 +3907,7 @@
         <xdr:cNvPr id="33" name="箭头: 上弧形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DA0E5BC-FE32-45EF-A8D3-9C689F395FDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA0E5BC-FE32-45EF-A8D3-9C689F395FDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3781,7 +3971,7 @@
         <xdr:cNvPr id="34" name="椭圆 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61B59BC8-B668-464B-B188-CE3710D31973}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B59BC8-B668-464B-B188-CE3710D31973}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3844,7 +4034,7 @@
         <xdr:cNvPr id="35" name="矩形 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3921,7 +4111,7 @@
         <xdr:cNvPr id="36" name="椭圆 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3984,7 +4174,7 @@
         <xdr:cNvPr id="37" name="椭圆 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4047,7 +4237,7 @@
         <xdr:cNvPr id="38" name="箭头: 下弧形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4111,7 +4301,7 @@
         <xdr:cNvPr id="39" name="椭圆 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4174,7 +4364,7 @@
         <xdr:cNvPr id="40" name="矩形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576A5619-A65C-4FEF-A2DC-D1CEBF47BD54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576A5619-A65C-4FEF-A2DC-D1CEBF47BD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4234,7 +4424,7 @@
         <xdr:cNvPr id="44" name="矩形 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4297,7 +4487,7 @@
         <xdr:cNvPr id="59" name="矩形 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0164B002-7831-462F-841D-835A27E9AC33}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0164B002-7831-462F-841D-835A27E9AC33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4364,7 +4554,7 @@
         <xdr:cNvPr id="76" name="图片 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13806A2E-D8EB-4CC5-98D1-40F44DF499AD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13806A2E-D8EB-4CC5-98D1-40F44DF499AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4408,7 +4598,7 @@
         <xdr:cNvPr id="77" name="图片 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAE4DE3A-A508-4CE7-BA67-80B81237A199}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE4DE3A-A508-4CE7-BA67-80B81237A199}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4452,7 +4642,7 @@
         <xdr:cNvPr id="81" name="矩形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A37569F0-1000-4FB2-8F40-F4CD5FDD3624}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37569F0-1000-4FB2-8F40-F4CD5FDD3624}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4517,7 +4707,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C20B7DBC-4C70-4451-B2D6-37F62FEC5869}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20B7DBC-4C70-4451-B2D6-37F62FEC5869}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4580,7 +4770,7 @@
         <xdr:cNvPr id="83" name="矩形 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E4AAD4-4CC5-46A3-9668-29DBB28D5D20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E4AAD4-4CC5-46A3-9668-29DBB28D5D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4640,7 +4830,7 @@
         <xdr:cNvPr id="84" name="矩形 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4704,7 +4894,7 @@
         <xdr:cNvPr id="85" name="矩形 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDF20CFF-8532-42C7-9388-90570096D494}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF20CFF-8532-42C7-9388-90570096D494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4772,7 +4962,7 @@
         <xdr:cNvPr id="86" name="矩形 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7065E750-85A8-457A-B728-4BA987CE0073}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7065E750-85A8-457A-B728-4BA987CE0073}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4840,7 +5030,7 @@
         <xdr:cNvPr id="87" name="矩形 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD03E14A-9B8F-46A0-96C3-DAF4DB6C8799}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD03E14A-9B8F-46A0-96C3-DAF4DB6C8799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5218,7 +5408,7 @@
         <xdr:cNvPr id="90" name="矩形 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5282,7 +5472,7 @@
         <xdr:cNvPr id="91" name="矩形 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5346,7 +5536,7 @@
         <xdr:cNvPr id="92" name="矩形 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5410,7 +5600,7 @@
         <xdr:cNvPr id="93" name="矩形 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5474,7 +5664,7 @@
         <xdr:cNvPr id="94" name="矩形 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5538,7 +5728,7 @@
         <xdr:cNvPr id="95" name="矩形 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5602,7 +5792,7 @@
         <xdr:cNvPr id="96" name="矩形 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5666,7 +5856,7 @@
         <xdr:cNvPr id="97" name="矩形 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5729,7 +5919,7 @@
         <xdr:cNvPr id="98" name="矩形 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5793,7 +5983,7 @@
         <xdr:cNvPr id="99" name="矩形 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5874,7 +6064,7 @@
         <xdr:cNvPr id="100" name="矩形 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5955,7 +6145,7 @@
         <xdr:cNvPr id="101" name="矩形 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6036,7 +6226,7 @@
         <xdr:cNvPr id="102" name="矩形 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6117,7 +6307,7 @@
         <xdr:cNvPr id="103" name="矩形 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6175,7 +6365,7 @@
         <xdr:cNvPr id="104" name="矩形 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6291,7 +6481,7 @@
         <xdr:cNvPr id="107" name="矩形 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6349,7 +6539,7 @@
         <xdr:cNvPr id="108" name="矩形 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6465,7 +6655,7 @@
         <xdr:cNvPr id="110" name="矩形 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6523,7 +6713,7 @@
         <xdr:cNvPr id="111" name="矩形 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6639,7 +6829,7 @@
         <xdr:cNvPr id="113" name="矩形 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6697,7 +6887,7 @@
         <xdr:cNvPr id="114" name="矩形 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6813,7 +7003,7 @@
         <xdr:cNvPr id="116" name="矩形 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6871,7 +7061,7 @@
         <xdr:cNvPr id="117" name="矩形 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6934,7 +7124,7 @@
         <xdr:cNvPr id="118" name="矩形 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6998,7 +7188,7 @@
         <xdr:cNvPr id="70" name="矩形 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7075,7 +7265,7 @@
         <xdr:cNvPr id="71" name="椭圆 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7138,7 +7328,7 @@
         <xdr:cNvPr id="72" name="椭圆 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7201,7 +7391,7 @@
         <xdr:cNvPr id="73" name="箭头: 下弧形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7265,7 +7455,7 @@
         <xdr:cNvPr id="74" name="椭圆 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8644,7 +8834,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12090,7 +12280,7 @@
         <xdr:cNvPr id="81" name="矩形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12150,7 +12340,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14272,7 +14462,7 @@
         <xdr:cNvPr id="116" name="矩形 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16401,7 +16591,7 @@
         <xdr:cNvPr id="133" name="矩形 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16569,7 +16759,7 @@
         <xdr:cNvPr id="145" name="矩形 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17050,7 +17240,7 @@
         <xdr:cNvPr id="146" name="矩形 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17110,7 +17300,7 @@
         <xdr:cNvPr id="147" name="矩形 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18931,6 +19121,666 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>515</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>313815</xdr:colOff>
+      <xdr:row>555</xdr:row>
+      <xdr:rowOff>75300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="图片 117"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="93773625"/>
+          <a:ext cx="4076190" cy="7200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>518</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>523</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直接箭头连接符 119"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9772650" y="94354650"/>
+          <a:ext cx="1628775" cy="847726"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>524</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>524</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直接箭头连接符 189"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="95316677"/>
+          <a:ext cx="2781300" cy="114298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>541</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="直接箭头连接符 191"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="96250127"/>
+          <a:ext cx="2343150" cy="2190748"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>530</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>557</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="直接箭头连接符 207"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182225" y="96450152"/>
+          <a:ext cx="1266825" cy="4857748"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>524</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="图片 131"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15897225" y="93545026"/>
+          <a:ext cx="2000250" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>519</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="直接箭头连接符 136"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14611350" y="94507050"/>
+          <a:ext cx="1171575" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>516</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>517</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直接箭头连接符 140"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17135475" y="93945075"/>
+          <a:ext cx="1200150" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>519</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="210" name="直接箭头连接符 209"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17030700" y="94430850"/>
+          <a:ext cx="1257300" cy="171452"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>57153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="直接箭头连接符 210"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17145000" y="94802328"/>
+          <a:ext cx="1143000" cy="47622"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>526</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>43095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="图片 212"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11553824" y="95783400"/>
+          <a:ext cx="2047875" cy="1900470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>530</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="217" name="直接箭头连接符 216"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13411200" y="96097725"/>
+          <a:ext cx="685800" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>533</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="219" name="直接箭头连接符 218"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13363575" y="97031175"/>
+          <a:ext cx="714375" cy="171451"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>544</xdr:row>
+      <xdr:rowOff>52290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>556</xdr:row>
+      <xdr:rowOff>11517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="223" name="图片 222"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12268201" y="98959890"/>
+          <a:ext cx="2400299" cy="2130927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>541</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>181109</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>161109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="229" name="图片 228"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20135850" y="98517075"/>
+          <a:ext cx="3200534" cy="5799909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19394,8 +20244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19434,37 +20284,37 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G4" s="2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G5" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H6" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G12" s="2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G13" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G27" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -19514,7 +20364,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
@@ -19534,7 +20384,7 @@
     </row>
     <row r="57" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C57" s="38" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D57" s="39"/>
       <c r="E57" s="39"/>
@@ -19544,7 +20394,7 @@
     </row>
     <row r="58" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C58" s="38" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -19590,7 +20440,7 @@
     <row r="73" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D74" s="38" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39"/>
@@ -19600,7 +20450,7 @@
     </row>
     <row r="75" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D75" s="39" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39"/>
@@ -19610,7 +20460,7 @@
     </row>
     <row r="76" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D76" s="39" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
@@ -19620,7 +20470,7 @@
     </row>
     <row r="77" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D77" s="38" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
@@ -19637,7 +20487,7 @@
     </row>
     <row r="79" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C79" s="38" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E79" s="39"/>
       <c r="F79" s="39"/>
@@ -19647,7 +20497,7 @@
     </row>
     <row r="80" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D80" s="38" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E80" s="39"/>
       <c r="F80" s="39"/>
@@ -19832,7 +20682,7 @@
     <row r="107" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="108" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E108" s="38" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -19886,89 +20736,89 @@
     <row r="121" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="122" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C122" s="38" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D123" s="38" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D124" s="38" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D125" s="38" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D126" s="38" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D127" s="38" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D128" s="38" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="130" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C130" s="38" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J131" s="38" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K132" s="38" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K133" s="38" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K134" s="38" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K135" s="38" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="137" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J137" s="38" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K138" s="38" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="139" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K139" s="38" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K140" s="38" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -20008,7 +20858,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B170" s="42" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C170" s="43"/>
       <c r="D170" s="43"/>
@@ -20058,10 +20908,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z516"/>
+  <dimension ref="A1:AA559"/>
   <sheetViews>
-    <sheetView topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="F517" sqref="F517"/>
+    <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
+      <selection activeCell="Y530" sqref="Y530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20201,194 +21051,187 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A65" s="16"/>
     </row>
     <row r="68" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G70" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H71" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H72" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H73" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G75" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H76" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H77" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H78" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G96" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H97" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G99" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H100" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H101" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H102" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C109" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C114" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D121" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B121" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D121" s="26" t="s">
-        <v>113</v>
-      </c>
       <c r="E121" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F121" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F121" s="29" t="s">
-        <v>119</v>
-      </c>
       <c r="G121" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H121" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B122" s="21">
         <v>1300</v>
@@ -20410,7 +21253,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B123" s="21">
         <v>1400</v>
@@ -20432,7 +21275,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B124" s="21">
         <v>1800</v>
@@ -20454,45 +21297,45 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C127" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C128" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B130" s="27" t="s">
+      <c r="D130" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="E130" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D130" s="27" t="s">
+      <c r="F130" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E130" s="27" t="s">
+      <c r="G130" s="27" t="s">
         <v>106</v>
-      </c>
-      <c r="F130" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="G130" s="27" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -20500,22 +21343,22 @@
         <v>1</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -20567,168 +21410,168 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G142" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G143" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G144" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G149" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G150" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G153" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H154" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H155" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H156" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G161" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H162" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H163" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="1:8" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
-        <v>215</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B182" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C183" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C184" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B185" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B187" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D187" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C187" s="27" t="s">
+      <c r="E187" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F187" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G187" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H187" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I187" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="J187" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="K187" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="L187" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="M187" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="N187" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="O187" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="P187" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q187" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="R187" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="S187" s="27" t="s">
         <v>150</v>
-      </c>
-      <c r="D187" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E187" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="F187" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="G187" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="H187" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="I187" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="J187" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="K187" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="L187" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="M187" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="N187" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="O187" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="P187" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q187" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="R187" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="S187" s="27" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B188" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C188" s="21"/>
       <c r="D188" s="21"/>
@@ -20752,62 +21595,62 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B189" s="28" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B191" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C191" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D191" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E191" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C191" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D191" s="30" t="s">
+      <c r="F191" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="E191" s="30" t="s">
+      <c r="G191" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="F191" s="30" t="s">
+      <c r="H191" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="G191" s="30" t="s">
+      <c r="I191" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="H191" s="30" t="s">
+      <c r="J191" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="I191" s="30" t="s">
+      <c r="K191" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="J191" s="30" t="s">
+      <c r="L191" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="K191" s="30" t="s">
+      <c r="M191" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="L191" s="30" t="s">
+      <c r="N191" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="M191" s="30" t="s">
+      <c r="O191" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="N191" s="30" t="s">
+      <c r="P191" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="O191" s="30" t="s">
+      <c r="Q191" s="30" t="s">
         <v>179</v>
-      </c>
-      <c r="P191" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q191" s="30" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B192" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="24"/>
@@ -20815,7 +21658,7 @@
       <c r="F192" s="24"/>
       <c r="G192" s="24"/>
       <c r="H192" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I192" s="24"/>
       <c r="J192" s="24"/>
@@ -20829,47 +21672,47 @@
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B193" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B195" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C195" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C195" s="27" t="s">
+      <c r="D195" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E195" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D195" s="27" t="s">
+      <c r="F195" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="E195" s="27" t="s">
+      <c r="G195" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="F195" s="27" t="s">
+      <c r="H195" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="G195" s="27" t="s">
+      <c r="I195" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="H195" s="27" t="s">
+      <c r="J195" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="I195" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="J195" s="27" t="s">
-        <v>193</v>
-      </c>
       <c r="K195" s="30" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B196" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D196" s="21"/>
       <c r="E196" s="21"/>
@@ -20884,60 +21727,60 @@
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B197" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B199" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C200" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C201" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C202" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B204" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C205" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C206" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C207" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C208" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C209" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="210" spans="2:18" x14ac:dyDescent="0.2">
@@ -20945,82 +21788,82 @@
     </row>
     <row r="211" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B211" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C212" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="253" spans="1:3" s="33" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A253" s="35" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B255" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C256" s="2" t="s">
-        <v>225</v>
+        <v>460</v>
       </c>
     </row>
     <row r="258" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B258" s="2" t="s">
-        <v>249</v>
+        <v>459</v>
       </c>
     </row>
     <row r="259" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C259" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="260" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C260" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="261" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C261" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D261" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="E261" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F261" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="G261" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="H261" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I261" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="J261" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="D261" s="37" t="s">
+      <c r="K261" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="L261" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="E261" s="37" t="s">
+      <c r="M261" s="37" t="s">
         <v>235</v>
-      </c>
-      <c r="F261" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="G261" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="H261" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="I261" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="J261" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="K261" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="L261" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="M261" s="37" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="262" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C262" s="21" t="s">
-        <v>251</v>
+        <v>458</v>
       </c>
       <c r="D262" s="21">
         <v>0</v>
@@ -21029,25 +21872,25 @@
         <v>0</v>
       </c>
       <c r="F262" s="21" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G262" s="21">
         <v>6010</v>
       </c>
       <c r="H262" s="21" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I262" s="21">
         <v>3230</v>
       </c>
       <c r="J262" s="21" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K262" s="21">
         <v>600</v>
       </c>
       <c r="L262" s="21" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M262" s="21">
         <v>160</v>
@@ -21055,12 +21898,12 @@
     </row>
     <row r="264" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C264" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="265" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C265" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="268" spans="2:18" x14ac:dyDescent="0.2">
@@ -21068,72 +21911,72 @@
     </row>
     <row r="269" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C269" s="2" t="s">
-        <v>230</v>
+        <v>462</v>
       </c>
     </row>
     <row r="270" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C270" s="2" t="s">
-        <v>231</v>
+        <v>463</v>
       </c>
     </row>
     <row r="271" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B271" s="2" t="s">
-        <v>229</v>
+        <v>461</v>
       </c>
     </row>
     <row r="272" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C272" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D272" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="E272" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F272" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="G272" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="H272" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I272" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="J272" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="D272" s="37" t="s">
+      <c r="K272" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="L272" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="E272" s="37" t="s">
+      <c r="M272" s="37" t="s">
         <v>235</v>
-      </c>
-      <c r="F272" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="G272" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="H272" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="I272" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="J272" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="K272" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="L272" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="M272" s="37" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="273" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C273" s="21" t="s">
-        <v>233</v>
+        <v>464</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E273" s="21">
         <v>8060</v>
       </c>
       <c r="F273" s="21" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G273" s="21">
         <v>1900</v>
       </c>
       <c r="H273" s="21" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I273" s="21">
         <v>40</v>
@@ -21153,28 +21996,28 @@
     </row>
     <row r="274" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C274" s="21" t="s">
-        <v>248</v>
+        <v>465</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E274" s="21">
         <v>150</v>
       </c>
       <c r="F274" s="21" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G274" s="21">
         <v>8725</v>
       </c>
       <c r="H274" s="21" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I274" s="21">
         <v>1000</v>
       </c>
       <c r="J274" s="21" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K274" s="21">
         <v>125</v>
@@ -21188,12 +22031,12 @@
     </row>
     <row r="308" spans="1:7" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A308" s="34" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G312" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
@@ -21201,56 +22044,56 @@
     </row>
     <row r="351" spans="1:6" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="34" t="s">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="B351" s="53"/>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B354" s="2" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B357" s="2" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B358" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B360" s="49" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C360" s="49" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D360" s="49" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E360" s="49" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F360" s="49" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G360" s="50" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="H360" s="49" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
@@ -21258,10 +22101,10 @@
         <v>10001</v>
       </c>
       <c r="C361" s="21" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E361" s="21">
         <v>6</v>
@@ -21274,158 +22117,158 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B365" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C366" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C367" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C368" s="2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="369" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D369" s="2" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="370" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D370" s="2" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="372" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C372" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="382" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I382" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="384" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I384" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="387" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I387" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="389" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I389" s="2" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="392" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I392" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="395" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I395" s="2" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="397" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I397" s="2" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I413" s="2" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I414" s="2" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J415" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J416" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="417" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K417" s="2" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="418" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K418" s="2" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="419" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K419" s="2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="420" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K420" s="2" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="421" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K421" s="2" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="425" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I425" s="2" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="428" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I428" s="2" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="429" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I429" s="2" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="430" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I430" s="2" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="431" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I431" s="2" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="434" spans="9:16" x14ac:dyDescent="0.2">
       <c r="O434" s="51" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="P434" s="52" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="435" spans="9:16" x14ac:dyDescent="0.2">
@@ -21433,7 +22276,7 @@
         <v>1</v>
       </c>
       <c r="P435" s="21" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="436" spans="9:16" x14ac:dyDescent="0.2">
@@ -21441,7 +22284,7 @@
         <v>2</v>
       </c>
       <c r="P436" s="21" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="437" spans="9:16" x14ac:dyDescent="0.2">
@@ -21449,7 +22292,7 @@
         <v>3</v>
       </c>
       <c r="P437" s="21" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="438" spans="9:16" x14ac:dyDescent="0.2">
@@ -21457,209 +22300,450 @@
         <v>4</v>
       </c>
       <c r="P438" s="21" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="446" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I446" s="2" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="449" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I449" s="2" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="450" spans="9:26" x14ac:dyDescent="0.2">
       <c r="J450" s="2" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="454" spans="9:26" x14ac:dyDescent="0.2">
       <c r="X454" s="2" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="455" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y455" s="2" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="456" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y456" s="2" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="457" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y457" s="2" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="458" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y458" s="2" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="459" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Z459" s="2" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="460" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Z460" s="2" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="461" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Z461" s="2" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="462" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y462" s="2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="464" spans="9:26" x14ac:dyDescent="0.2">
       <c r="X464" s="2" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="466" spans="9:25" x14ac:dyDescent="0.2">
       <c r="I466" s="2" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="X466" s="2" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="467" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J467" s="2" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="468" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J468" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="X468" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="X468" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="469" spans="9:25" x14ac:dyDescent="0.2">
       <c r="Y469" s="2" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="470" spans="9:25" x14ac:dyDescent="0.2">
       <c r="I470" s="2" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="Y470" s="2" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="471" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J471" s="2" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="472" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J472" s="2" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="474" spans="9:25" x14ac:dyDescent="0.2">
       <c r="I474" s="2" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="475" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J475" s="2" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="476" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J476" s="2" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B497" s="2" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C498" s="2" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C499" s="2" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D500" s="2" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D501" s="2" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B503" s="2" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C504" s="2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B507" s="2" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="508" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C508" s="2" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="510" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B510" s="2" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C511" s="2" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C512" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="514" spans="1:27" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A514" s="55" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C516" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D516" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="516" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="517" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B517" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA517" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="519" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q519" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="520" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B520" s="2" t="s">
         <v>466</v>
+      </c>
+      <c r="R520" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA520" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="521" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B521" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="R521" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="522" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B522" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA522" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="523" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B523" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="524" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C524" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="525" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q525" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="526" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C526" s="52" t="s">
+        <v>470</v>
+      </c>
+      <c r="D526" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="E526" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="R526" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="527" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C527" s="21">
+        <v>1</v>
+      </c>
+      <c r="D527" s="21">
+        <v>500</v>
+      </c>
+      <c r="E527" s="21"/>
+      <c r="P527"/>
+    </row>
+    <row r="528" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C528" s="21">
+        <v>2</v>
+      </c>
+      <c r="D528" s="21">
+        <v>2500</v>
+      </c>
+      <c r="E528" s="21"/>
+    </row>
+    <row r="529" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C529" s="21">
+        <v>3</v>
+      </c>
+      <c r="D529" s="21">
+        <v>8500</v>
+      </c>
+      <c r="E529" s="21"/>
+      <c r="U529" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="530" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C530" s="21">
+        <v>4</v>
+      </c>
+      <c r="D530" s="21">
+        <v>15000</v>
+      </c>
+      <c r="E530" s="21"/>
+    </row>
+    <row r="531" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C531" s="21">
+        <v>6</v>
+      </c>
+      <c r="D531" s="21">
+        <v>28000</v>
+      </c>
+      <c r="E531" s="21"/>
+    </row>
+    <row r="533" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C533" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="534" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U534" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="535" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C535" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="D535" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="E535" s="52" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="536" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C536" s="21">
+        <v>1</v>
+      </c>
+      <c r="D536" s="21">
+        <v>110</v>
+      </c>
+      <c r="E536" s="21"/>
+    </row>
+    <row r="537" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C537" s="21">
+        <v>2</v>
+      </c>
+      <c r="D537" s="21">
+        <v>400</v>
+      </c>
+      <c r="E537" s="21"/>
+    </row>
+    <row r="538" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C538" s="21">
+        <v>3</v>
+      </c>
+      <c r="D538" s="21">
+        <v>800</v>
+      </c>
+      <c r="E538" s="21"/>
+    </row>
+    <row r="539" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C539" s="21">
+        <v>4</v>
+      </c>
+      <c r="D539" s="21">
+        <v>1500</v>
+      </c>
+      <c r="E539" s="21"/>
+      <c r="Q539" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="540" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C540" s="21">
+        <v>6</v>
+      </c>
+      <c r="D540" s="21">
+        <v>3000</v>
+      </c>
+      <c r="E540" s="21"/>
+    </row>
+    <row r="542" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q542" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="543" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B543" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="R543" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="544" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B544" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="R544" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="545" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B545" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="547" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="548" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B548" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="549" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B549" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="558" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q558" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="559" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R559" s="2" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -21674,7 +22758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
@@ -21690,189 +22774,189 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="39" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="39" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="39" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="39" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="39" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>299</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="39" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="39" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="39" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="41" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="47" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="47" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="47" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -21880,45 +22964,45 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B43" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J43" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="C43" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="I43" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="J43" s="44" t="s">
-        <v>340</v>
-      </c>
       <c r="K43" s="44" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C44" s="44">
         <v>3</v>
@@ -21939,10 +23023,10 @@
         <v>1</v>
       </c>
       <c r="I44" s="44" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="J44" s="44" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="K44" s="44">
         <v>0</v>
@@ -21950,10 +23034,10 @@
     </row>
     <row r="45" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C45" s="44">
         <v>7</v>
@@ -21974,10 +23058,10 @@
         <v>1</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="J45" s="44" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="K45" s="44">
         <v>0</v>
@@ -21985,10 +23069,10 @@
     </row>
     <row r="46" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="44" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C46" s="44">
         <v>18</v>
@@ -22009,10 +23093,10 @@
         <v>4</v>
       </c>
       <c r="I46" s="44" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="J46" s="44" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="K46" s="44">
         <v>0</v>
@@ -22020,10 +23104,10 @@
     </row>
     <row r="47" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="44" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C47" s="44">
         <v>7</v>
@@ -22044,10 +23128,10 @@
         <v>3</v>
       </c>
       <c r="I47" s="44" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="J47" s="44" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="K47" s="44">
         <v>0</v>
@@ -22055,16 +23139,16 @@
     </row>
     <row r="48" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="44" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C48" s="44">
         <v>13</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E48" s="44">
         <v>1</v>
@@ -22079,10 +23163,10 @@
         <v>0</v>
       </c>
       <c r="I48" s="44" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="K48" s="44">
         <v>0</v>
@@ -22090,10 +23174,10 @@
     </row>
     <row r="49" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C49" s="44">
         <v>6</v>
@@ -22114,13 +23198,13 @@
         <v>1</v>
       </c>
       <c r="I49" s="44" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="J49" s="44" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="K49" s="44" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -22147,69 +23231,69 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/文档/文档/系统.xlsx
+++ b/文档/文档/系统.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="系统构架" sheetId="1" r:id="rId1"/>
     <sheet name="战斗系统" sheetId="3" r:id="rId2"/>
     <sheet name="城镇" sheetId="4" r:id="rId3"/>
-    <sheet name="角色" sheetId="6" r:id="rId4"/>
-    <sheet name="公式" sheetId="5" r:id="rId5"/>
-    <sheet name="经济系统" sheetId="2" r:id="rId6"/>
+    <sheet name="其他系统" sheetId="7" r:id="rId4"/>
+    <sheet name="角色" sheetId="6" r:id="rId5"/>
+    <sheet name="公式" sheetId="5" r:id="rId6"/>
+    <sheet name="经济系统" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="584">
   <si>
     <t>2.1 货币介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1900,10 +1901,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>矮人环流器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>住宅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2048,59 +2045,390 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>点击该槽位弹出实体获得弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化完成后该槽位状态转变为 槽位待机状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位上锁状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位净化完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位运行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位待机状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该状态点击弹出个人灵体背包。点击背包内的灵体后，该灵体icon出现在该槽位中。且该槽位状态更变为槽位运行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该处默认显示灵体催化药剂的icon以及名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该处显示玩家选择使用的数量个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该处显示加速时间值，该值受使用个数的影响而变化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币扩建栏位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石扩建栏位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*玩家等级/金币/钻石条件不满足时，对应区域点击无效，且不满足的条件文字变色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>点击该槽位弹出拓展槽位弹窗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击该槽位弹出实体获得弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化完成后该槽位状态转变为 槽位待机状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽位上锁状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽位净化完成状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽位运行状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽位待机状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该状态点击弹出个人灵体背包。点击背包内的灵体后，该灵体icon出现在该槽位中。且该槽位状态更变为槽位运行状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该处默认显示灵体催化药剂的icon以及名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该处显示玩家选择使用的数量个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该处显示加速时间值，该值受使用个数的影响而变化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币扩建栏位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石扩建栏位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*玩家等级/金币/钻石条件不满足时，对应区域点击无效，且不满足的条件文字变色</t>
+    <t>槽位扩建完成后，弹窗取消，该槽位变为槽位待机状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环流器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息弹窗</t>
+  </si>
+  <si>
+    <t>1.若当前图鉴内无该灵体对应的实体解锁，则按住该灵体出现的弹窗信息统一为 ”未知的灵体“，松手撤销；弹窗区域根据玩家点击区域判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.若当前图鉴内该灵体对应的实体已解锁，则按住该灵体出现弹窗信息为”(name)的灵体"  name=实体名称，松手撤销；弹窗区域根据玩家点击区域判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.按住显示弹窗，松手撤销。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.信息内容=物品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.文字颜色和物品稀有度等同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.边框颜色和物品稀有度等同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.点击图标弹出详细信息弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*若该物品不可使用，则不出现使用按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细信息弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*按住某一词缀区域，显示该装备该词缀数值的随机范围值，松手撤销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具/装备/灵体 获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字信息提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物名称位置。最大显示中文字符：6个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*点击修改名称，弹出修改名称框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物等级和经验进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该按钮弹出赠送界面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*该区域显示玩家背包内的所有道具。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*排列：稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击该界面内物品后弹出数量选择框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.点击确定按钮后弹出信息确认框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.点击取消返回赠送物品的背包栏界面。  点击确认则回到人物信息界面，同时扣除材料，系统计算好感度加成数值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.该实体若在编队中则默认上锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.点击该按钮切换锁的状态（上锁/未上锁)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.若该实体处于编队中，点击该按钮，则弹出提示“该实体正处于编队中。不可解锁。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实体处于锁定状态时，人物不可成为强化材料。（强化素材选择界面不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该按钮分为两种状态（上锁/未上锁：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备栏：武器/护甲/项链/戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*点击对应栏位弹出该类型装备背包界面。（仅显示该类型物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若当前栏位未装备任何装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若当前栏位已装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*点击对应栏位弹出气泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该气泡按钮，则该装备卸下至背包。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击更换按钮，则弹出该类型的装备背包界面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物属性以及成长系数由配置表配置。程序读取对应配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长评定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C级范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmin=min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmax=min+(max-min)/10*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B级范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bmin=Cmax+0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bmax=Cmin+(max-min)/10*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出的数字为Cmin~Cmax间，则该条属性评定为C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A级范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amin=Bmax+0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amax=Bmin+(max-min)/10*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S级范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smin=Amax+0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出的数字为Bmin~Bmax间，则该条属性评定为B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出的数字为Smin~Smax间，则该条属性评定为S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出的数字为Amin~Amax间，则该条属性评定为A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长评分等级分为：S/A/B/C    30%/30%/30%/10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smax=Amin+(max-min)/10*1-0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2464,7 +2792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2557,6 +2885,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2581,6 +2911,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2732,7 +3064,7 @@
         <xdr:cNvPr id="125" name="矩形 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +3124,7 @@
         <xdr:cNvPr id="2" name="矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +3184,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2BF022-23A6-467A-81E1-19EC305EFC34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B2BF022-23A6-467A-81E1-19EC305EFC34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2915,7 +3247,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B100BD83-D85A-4C06-B53A-14C9386E8B03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B100BD83-D85A-4C06-B53A-14C9386E8B03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +3319,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51526E19-94A1-4255-A926-245DA024AF87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51526E19-94A1-4255-A926-245DA024AF87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3383,7 @@
         <xdr:cNvPr id="8" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4102E9-C5D8-4C1E-B261-ABCC2D4AF7B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED4102E9-C5D8-4C1E-B261-ABCC2D4AF7B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3115,7 +3447,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637B0498-9A4D-44DD-BD16-F8DCAA51FCA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{637B0498-9A4D-44DD-BD16-F8DCAA51FCA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3183,7 +3515,7 @@
         <xdr:cNvPr id="12" name="矩形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E914B5-11B4-4AAA-A1EB-D0BECDB26C77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3E914B5-11B4-4AAA-A1EB-D0BECDB26C77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3596,7 @@
         <xdr:cNvPr id="13" name="矩形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F270FCC1-8F02-4350-AFE0-E3B6E9D52ECF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F270FCC1-8F02-4350-AFE0-E3B6E9D52ECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3330,7 +3662,7 @@
         <xdr:cNvPr id="14" name="文本框 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B31F25-953E-454C-B09B-E0F837A2CC30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78B31F25-953E-454C-B09B-E0F837A2CC30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3405,7 +3737,7 @@
         <xdr:cNvPr id="15" name="矩形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3482,7 +3814,7 @@
         <xdr:cNvPr id="23" name="矩形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3559,7 +3891,7 @@
         <xdr:cNvPr id="24" name="矩形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3636,7 +3968,7 @@
         <xdr:cNvPr id="25" name="矩形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3713,7 +4045,7 @@
         <xdr:cNvPr id="26" name="矩形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DDE71E-CD2A-43CC-BA95-31DE86EE7B0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21DDE71E-CD2A-43CC-BA95-31DE86EE7B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3776,7 +4108,7 @@
         <xdr:cNvPr id="31" name="矩形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E413CF-E69C-431A-B70B-280EC1DEB644}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20E413CF-E69C-431A-B70B-280EC1DEB644}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3839,7 +4171,7 @@
         <xdr:cNvPr id="32" name="矩形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9BF090-DFAF-4425-86D1-49CFC9E3EE43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E9BF090-DFAF-4425-86D1-49CFC9E3EE43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3907,7 +4239,7 @@
         <xdr:cNvPr id="33" name="箭头: 上弧形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA0E5BC-FE32-45EF-A8D3-9C689F395FDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DA0E5BC-FE32-45EF-A8D3-9C689F395FDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3971,7 +4303,7 @@
         <xdr:cNvPr id="34" name="椭圆 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B59BC8-B668-464B-B188-CE3710D31973}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61B59BC8-B668-464B-B188-CE3710D31973}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4034,7 +4366,7 @@
         <xdr:cNvPr id="35" name="矩形 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4111,7 +4443,7 @@
         <xdr:cNvPr id="36" name="椭圆 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4174,7 +4506,7 @@
         <xdr:cNvPr id="37" name="椭圆 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4237,7 +4569,7 @@
         <xdr:cNvPr id="38" name="箭头: 下弧形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4301,7 +4633,7 @@
         <xdr:cNvPr id="39" name="椭圆 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4364,7 +4696,7 @@
         <xdr:cNvPr id="40" name="矩形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576A5619-A65C-4FEF-A2DC-D1CEBF47BD54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576A5619-A65C-4FEF-A2DC-D1CEBF47BD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4424,7 +4756,7 @@
         <xdr:cNvPr id="44" name="矩形 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4487,7 +4819,7 @@
         <xdr:cNvPr id="59" name="矩形 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0164B002-7831-462F-841D-835A27E9AC33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0164B002-7831-462F-841D-835A27E9AC33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4554,7 +4886,7 @@
         <xdr:cNvPr id="76" name="图片 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13806A2E-D8EB-4CC5-98D1-40F44DF499AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13806A2E-D8EB-4CC5-98D1-40F44DF499AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4598,7 +4930,7 @@
         <xdr:cNvPr id="77" name="图片 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE4DE3A-A508-4CE7-BA67-80B81237A199}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAE4DE3A-A508-4CE7-BA67-80B81237A199}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4642,7 +4974,7 @@
         <xdr:cNvPr id="81" name="矩形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37569F0-1000-4FB2-8F40-F4CD5FDD3624}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A37569F0-1000-4FB2-8F40-F4CD5FDD3624}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4707,7 +5039,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20B7DBC-4C70-4451-B2D6-37F62FEC5869}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C20B7DBC-4C70-4451-B2D6-37F62FEC5869}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4770,7 +5102,7 @@
         <xdr:cNvPr id="83" name="矩形 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E4AAD4-4CC5-46A3-9668-29DBB28D5D20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E4AAD4-4CC5-46A3-9668-29DBB28D5D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4830,7 +5162,7 @@
         <xdr:cNvPr id="84" name="矩形 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4894,7 +5226,7 @@
         <xdr:cNvPr id="85" name="矩形 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF20CFF-8532-42C7-9388-90570096D494}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDF20CFF-8532-42C7-9388-90570096D494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4962,7 +5294,7 @@
         <xdr:cNvPr id="86" name="矩形 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7065E750-85A8-457A-B728-4BA987CE0073}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7065E750-85A8-457A-B728-4BA987CE0073}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5030,7 +5362,7 @@
         <xdr:cNvPr id="87" name="矩形 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD03E14A-9B8F-46A0-96C3-DAF4DB6C8799}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD03E14A-9B8F-46A0-96C3-DAF4DB6C8799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5408,7 +5740,7 @@
         <xdr:cNvPr id="90" name="矩形 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5472,7 +5804,7 @@
         <xdr:cNvPr id="91" name="矩形 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5536,7 +5868,7 @@
         <xdr:cNvPr id="92" name="矩形 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5600,7 +5932,7 @@
         <xdr:cNvPr id="93" name="矩形 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5664,7 +5996,7 @@
         <xdr:cNvPr id="94" name="矩形 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5728,7 +6060,7 @@
         <xdr:cNvPr id="95" name="矩形 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +6124,7 @@
         <xdr:cNvPr id="96" name="矩形 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5856,7 +6188,7 @@
         <xdr:cNvPr id="97" name="矩形 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5919,7 +6251,7 @@
         <xdr:cNvPr id="98" name="矩形 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5983,7 +6315,7 @@
         <xdr:cNvPr id="99" name="矩形 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6064,7 +6396,7 @@
         <xdr:cNvPr id="100" name="矩形 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6145,7 +6477,7 @@
         <xdr:cNvPr id="101" name="矩形 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6226,7 +6558,7 @@
         <xdr:cNvPr id="102" name="矩形 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6307,7 +6639,7 @@
         <xdr:cNvPr id="103" name="矩形 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6365,7 +6697,7 @@
         <xdr:cNvPr id="104" name="矩形 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6481,7 +6813,7 @@
         <xdr:cNvPr id="107" name="矩形 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6539,7 +6871,7 @@
         <xdr:cNvPr id="108" name="矩形 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6655,7 +6987,7 @@
         <xdr:cNvPr id="110" name="矩形 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6713,7 +7045,7 @@
         <xdr:cNvPr id="111" name="矩形 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6829,7 +7161,7 @@
         <xdr:cNvPr id="113" name="矩形 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6887,7 +7219,7 @@
         <xdr:cNvPr id="114" name="矩形 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7003,7 +7335,7 @@
         <xdr:cNvPr id="116" name="矩形 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7061,7 +7393,7 @@
         <xdr:cNvPr id="117" name="矩形 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7124,7 +7456,7 @@
         <xdr:cNvPr id="118" name="矩形 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7188,7 +7520,7 @@
         <xdr:cNvPr id="70" name="矩形 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7265,7 +7597,7 @@
         <xdr:cNvPr id="71" name="椭圆 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7328,7 +7660,7 @@
         <xdr:cNvPr id="72" name="椭圆 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7391,7 +7723,7 @@
         <xdr:cNvPr id="73" name="箭头: 下弧形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7455,7 +7787,7 @@
         <xdr:cNvPr id="74" name="椭圆 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8834,7 +9166,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12280,7 +12612,7 @@
         <xdr:cNvPr id="81" name="矩形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12340,7 +12672,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14462,7 +14794,7 @@
         <xdr:cNvPr id="116" name="矩形 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16591,7 +16923,7 @@
         <xdr:cNvPr id="133" name="矩形 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16759,7 +17091,7 @@
         <xdr:cNvPr id="145" name="矩形 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17240,7 +17572,7 @@
         <xdr:cNvPr id="146" name="矩形 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17300,7 +17632,7 @@
         <xdr:cNvPr id="147" name="矩形 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19577,14 +19909,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>526</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>527</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>537</xdr:row>
-      <xdr:rowOff>43095</xdr:rowOff>
+      <xdr:row>538</xdr:row>
+      <xdr:rowOff>4995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19601,7 +19933,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11553824" y="95783400"/>
+          <a:off x="11553824" y="95926275"/>
           <a:ext cx="2047875" cy="1900470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19746,15 +20078,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>541</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>181109</xdr:colOff>
-      <xdr:row>573</xdr:row>
-      <xdr:rowOff>161109</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>527</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>609734</xdr:colOff>
+      <xdr:row>559</xdr:row>
+      <xdr:rowOff>8709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19771,7 +20103,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20135850" y="98517075"/>
+          <a:off x="19878675" y="95831025"/>
           <a:ext cx="3200534" cy="5799909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19785,6 +20117,2131 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304248</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>113323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="333375"/>
+          <a:ext cx="4419048" cy="7819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="990600"/>
+          <a:ext cx="2162175" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="1504950"/>
+          <a:ext cx="2447925" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>162566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="3048001"/>
+          <a:ext cx="1371600" cy="991240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>475932</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="5219700"/>
+          <a:ext cx="2542857" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403407</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953750" y="5143501"/>
+          <a:ext cx="2479857" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180434</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>37505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944225" y="9105900"/>
+          <a:ext cx="4323809" cy="4761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>475932</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>18800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="9315450"/>
+          <a:ext cx="2542857" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14859000" y="10839450"/>
+          <a:ext cx="838200" cy="981076"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="13439775"/>
+          <a:ext cx="1076325" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685293</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>56251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="15020925"/>
+          <a:ext cx="4057143" cy="7190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>570837</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>123227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="23336250"/>
+          <a:ext cx="5304762" cy="4780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409098</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>132871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="23393400"/>
+          <a:ext cx="3819048" cy="3828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104268</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>66392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10448925" y="23441025"/>
+          <a:ext cx="4057143" cy="2266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211050" y="23498175"/>
+          <a:ext cx="619125" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文本框 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12306300" y="23479125"/>
+          <a:ext cx="466794" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170943</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>65776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="29060775"/>
+          <a:ext cx="4057143" cy="7190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1600200" y="29356050"/>
+          <a:ext cx="2971800" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>139141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="29708476"/>
+          <a:ext cx="1952625" cy="1186890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="30127576"/>
+          <a:ext cx="1943100" cy="1114424"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="30613351"/>
+          <a:ext cx="1666875" cy="904874"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596841</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>122822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591551" y="29241750"/>
+          <a:ext cx="2292290" cy="3628022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>118561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6477000" y="31055761"/>
+          <a:ext cx="2114551" cy="548190"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>5919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11001375" y="31975425"/>
+          <a:ext cx="2981325" cy="1682319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>45812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010900" y="31965901"/>
+          <a:ext cx="2981325" cy="283936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>171452</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2292781" cy="578748"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="文本框 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11363324" y="32556452"/>
+          <a:ext cx="2292781" cy="578748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>确定赠送 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>itemNmae*Num</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>作为礼物吗？</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>192700</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>122012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11763375" y="33308925"/>
+          <a:ext cx="773725" cy="283937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>确定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>373675</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>122012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="33308925"/>
+          <a:ext cx="773725" cy="283937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>取消</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10991850" y="30346650"/>
+          <a:ext cx="2333625" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390174</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>47326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="32032575"/>
+          <a:ext cx="2809524" cy="2390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11315700" y="30603826"/>
+          <a:ext cx="438150" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12449175" y="30613351"/>
+          <a:ext cx="438150" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>223561</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>71041</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="418641" cy="655885"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="文本框 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11882161" y="30465316"/>
+          <a:ext cx="418641" cy="655885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>211750</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>131537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11782425" y="31146750"/>
+          <a:ext cx="773725" cy="283937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>确定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="31003876"/>
+          <a:ext cx="1771650" cy="3752849"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2200</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>36287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="矩形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="29603700"/>
+          <a:ext cx="773725" cy="283937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>第</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>编队</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接箭头连接符 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="31203901"/>
+          <a:ext cx="1143000" cy="4695824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323556</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>56870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="图片 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="36899850"/>
+          <a:ext cx="2352381" cy="2238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>349310</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>49972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>164380</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>73639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="椭圆形标注 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3414832">
+          <a:off x="6398161" y="37082696"/>
+          <a:ext cx="747567" cy="500870"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>更换</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>130711</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>135222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>192478</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>93167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="椭圆形标注 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="349529">
+          <a:off x="5617111" y="36863622"/>
+          <a:ext cx="747567" cy="500870"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>卸下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>212375</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>56083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="图片 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12992100" y="35537775"/>
+          <a:ext cx="2307875" cy="3780358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>156629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直接箭头连接符 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="36290250"/>
+          <a:ext cx="3562350" cy="1137704"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>156629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直接箭头连接符 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11811000" y="37427954"/>
+          <a:ext cx="1181100" cy="110071"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接箭头连接符 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="32623125"/>
+          <a:ext cx="2209800" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -20244,8 +22701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20263,8 +22720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="J173" sqref="J173"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20908,10 +23365,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA559"/>
+  <dimension ref="A1:AA564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
-      <selection activeCell="Y530" sqref="Y530"/>
+    <sheetView topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21490,7 +23947,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
@@ -21808,12 +24265,12 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C256" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="258" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B258" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="259" spans="2:18" x14ac:dyDescent="0.2">
@@ -21863,7 +24320,7 @@
     </row>
     <row r="262" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C262" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D262" s="21">
         <v>0</v>
@@ -21911,17 +24368,17 @@
     </row>
     <row r="269" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C269" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="270" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C270" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="271" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B271" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="272" spans="2:18" x14ac:dyDescent="0.2">
@@ -21961,7 +24418,7 @@
     </row>
     <row r="273" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C273" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D273" s="21" t="s">
         <v>236</v>
@@ -21996,7 +24453,7 @@
     </row>
     <row r="274" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C274" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D274" s="21" t="s">
         <v>236</v>
@@ -22044,7 +24501,7 @@
     </row>
     <row r="351" spans="1:6" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B351" s="53"/>
     </row>
@@ -22055,7 +24512,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B354" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
@@ -22065,7 +24522,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B357" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
@@ -22494,84 +24951,84 @@
     </row>
     <row r="514" spans="1:27" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A514" s="55" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="516" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="517" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B517" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AA517" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="519" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q519" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="520" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B520" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R520" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AA520" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="521" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B521" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R521" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="522" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B522" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA522" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="523" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B523" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="524" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C524" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="525" spans="1:27" x14ac:dyDescent="0.2">
       <c r="Q525" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="526" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C526" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="D526" s="52" t="s">
         <v>470</v>
       </c>
-      <c r="D526" s="52" t="s">
+      <c r="E526" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="E526" s="52" t="s">
-        <v>472</v>
-      </c>
       <c r="R526" s="2" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="527" spans="1:27" x14ac:dyDescent="0.2">
@@ -22583,6 +25040,9 @@
       </c>
       <c r="E527" s="21"/>
       <c r="P527"/>
+      <c r="R527" s="2" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="528" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C528" s="21">
@@ -22602,7 +25062,7 @@
       </c>
       <c r="E529" s="21"/>
       <c r="U529" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="530" spans="1:21" x14ac:dyDescent="0.2">
@@ -22625,23 +25085,23 @@
     </row>
     <row r="533" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C533" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="534" spans="1:21" x14ac:dyDescent="0.2">
       <c r="U534" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="535" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C535" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="D535" s="52" t="s">
         <v>473</v>
       </c>
-      <c r="D535" s="52" t="s">
+      <c r="E535" s="52" t="s">
         <v>474</v>
-      </c>
-      <c r="E535" s="52" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="536" spans="1:21" x14ac:dyDescent="0.2">
@@ -22680,7 +25140,7 @@
       </c>
       <c r="E539" s="21"/>
       <c r="Q539" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="540" spans="1:21" x14ac:dyDescent="0.2">
@@ -22694,58 +25154,59 @@
     </row>
     <row r="542" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q542" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="543" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B543" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R543" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="544" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B544" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R544" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B545" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B548" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="549" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B549" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q558" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R559" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="564" s="54" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22755,11 +25216,462 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z238"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M193" sqref="M193"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="25" width="9" style="2"/>
+    <col min="26" max="26" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="56" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I8" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I9" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="L18" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="L19" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="25" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="J25" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="J26" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="28" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="J28" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="N30" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="31" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="N31" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="N32" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="43" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I43" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J44" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="45" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J45" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="46" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J46" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="47" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J47" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J48" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="Q49" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="50" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="J50" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N53" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="54" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N54" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="55" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N55" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="56" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N56" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="57" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="N57" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60" spans="10:24" x14ac:dyDescent="0.2">
+      <c r="X60" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="57" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A125" s="55" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A158" s="55" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="162" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H162" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="163" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H163" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="164" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="Q164" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="165" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="Q165" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="166" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="Q166" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="172" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H172" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="174" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H174" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="175" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="Q175" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="187" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="Q187" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="192" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H192" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="193" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="I193" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="194" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="I194" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="195" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="I195" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="196" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="I196" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="198" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H198" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="199" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H199" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="200" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="I200" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="201" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H201" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="202" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="I202" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="204" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="M204" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="205" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="N205" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="206" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="M206" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="207" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="N207" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="218" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H218" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="219" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="I219" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="220" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="I220" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="221" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="J221" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="222" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="J222" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="223" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="K223" s="66" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="224" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L224" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="225" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L225" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="226" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L226" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="227" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="K227" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="228" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L228" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z228" s="67"/>
+    </row>
+    <row r="229" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L229" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="230" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L230" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="231" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="K231" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="232" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L232" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="233" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L233" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="234" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L234" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="235" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="K235" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="236" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L236" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="237" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L237" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="238" spans="11:26" x14ac:dyDescent="0.2">
+      <c r="L238" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23226,7 +26138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -23303,7 +26215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -23336,10 +26248,10 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="59" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -23349,8 +26261,8 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
@@ -23358,8 +26270,8 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
@@ -23368,8 +26280,8 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
@@ -23377,8 +26289,8 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -23386,8 +26298,8 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
@@ -23395,8 +26307,8 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -23404,53 +26316,53 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="58"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>

--- a/文档/文档/系统.xlsx
+++ b/文档/文档/系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="系统构架" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="597">
   <si>
     <t>2.1 货币介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -876,53 +876,6 @@
   </si>
   <si>
     <t>1,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性克制，攻击方属性克制被攻击方时，伤害方的伤害倍数为1.15.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷属性公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害为攻击方伤害倍数的1.5倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2%初始爆率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若两方敏捷差的绝对值大于80，则向下只取到80</t>
-  </si>
-  <si>
-    <t>攻击方敏捷大于被攻击方敏捷时，区间为(0.8+0.3*敏捷差/80)~1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击方敏捷小于被攻击方敏捷时，区间为0.8~(1.2-0.3*敏捷差/80)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害浮动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害=基本攻击力*攻击伤害比*伤害浮动-防御*防御格挡比*防御浮动)*(1-伤害免疫)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62*0.95*1.2-48*0.25*0.75）*1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1769,666 +1722,792 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.加号提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.点击该窗口跳转至随从背包界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解锁休息栏位时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.锁图标提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.点击该窗口弹出提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡面信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.卡牌成长等级：C/B/A/S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.卡牌等级：数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.卡牌属性：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.卡牌星级：1-5星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索状态下的随从无法参与休息以及编队。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在休息窗口点击探索中的随从时，弹出提示“该随从正在探险中”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击非探索中状态的随从，该界面关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*休息窗口处替换成选择的随从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第x编队：根据该随从所在的编队。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索中，该随从正在执行探险时出现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.卡牌状态信息： </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选择：仅在该界面中出现，代表休息栏位中已有的随从。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*若点击有-已选择-状态的随从，则休息窗口处该随从取消显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感值上限为100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感值为100或溢出时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物好感等级+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感值进度刷新，有溢出值则+溢出值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*满100时可开启契约功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒适度/好感值公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感值/min =舒适度*1) / 1440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间系统内的人物可拖动提起，松手放开。 只可以在地面区域摆放。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间系统内的人物好感值提升时，浮现好感值增加的UI。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅拥有独立的舒适度系统，放置人物在该区域挂机获得好感值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅场景由，地板、地毯、墙壁、床、桌子、墙壁挂饰 6种类型组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家用来净化灵体成为实体的系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.神秘熔炉拥有4个素材放置栏位，必须放满4种素材才可以开启合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石卡池1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石卡池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费货币抽取灵体的地方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币卡池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.每个区域拥有独立的两种金币卡池，卡池内容不同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.根据玩家已解锁的区域来判定该区域的金币卡池是否解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通卡池1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶卡池2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化槽位初始默认开启3个槽位。玩家新增槽位需要消耗一定的钻石以及有等级限制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩建消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币扩建上限5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石扩建上限5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该场景共设定14个槽位上限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月卡栏位*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*根据配置表配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化完成时，该槽位的灵体需体现出净化完成的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击该槽位，播放实体回收动画。完成净化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*需要UI表示体现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*可使用净化加速器来加快净化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该状态需显示净化所需时间倒计时以及进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击加速按钮弹出使用加速道具弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该槽位弹出实体获得弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化完成后该槽位状态转变为 槽位待机状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位上锁状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位净化完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位运行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位待机状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该状态点击弹出个人灵体背包。点击背包内的灵体后，该灵体icon出现在该槽位中。且该槽位状态更变为槽位运行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该处默认显示灵体催化药剂的icon以及名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该处显示玩家选择使用的数量个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该处显示加速时间值，该值受使用个数的影响而变化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币扩建栏位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石扩建栏位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*玩家等级/金币/钻石条件不满足时，对应区域点击无效，且不满足的条件文字变色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该槽位弹出拓展槽位弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位扩建完成后，弹窗取消，该槽位变为槽位待机状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环流器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息弹窗</t>
+  </si>
+  <si>
+    <t>1.若当前图鉴内无该灵体对应的实体解锁，则按住该灵体出现的弹窗信息统一为 ”未知的灵体“，松手撤销；弹窗区域根据玩家点击区域判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.若当前图鉴内该灵体对应的实体已解锁，则按住该灵体出现弹窗信息为”(name)的灵体"  name=实体名称，松手撤销；弹窗区域根据玩家点击区域判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.按住显示弹窗，松手撤销。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.信息内容=物品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.文字颜色和物品稀有度等同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.边框颜色和物品稀有度等同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.点击图标弹出详细信息弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*若该物品不可使用，则不出现使用按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细信息弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*按住某一词缀区域，显示该装备该词缀数值的随机范围值，松手撤销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具/装备/灵体 获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字信息提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物名称位置。最大显示中文字符：6个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*点击修改名称，弹出修改名称框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物等级和经验进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该按钮弹出赠送界面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*该区域显示玩家背包内的所有道具。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*排列：稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击该界面内物品后弹出数量选择框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.点击确定按钮后弹出信息确认框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.点击取消返回赠送物品的背包栏界面。  点击确认则回到人物信息界面，同时扣除材料，系统计算好感度加成数值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.该实体若在编队中则默认上锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.点击该按钮切换锁的状态（上锁/未上锁)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.若该实体处于编队中，点击该按钮，则弹出提示“该实体正处于编队中。不可解锁。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实体处于锁定状态时，人物不可成为强化材料。（强化素材选择界面不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该按钮分为两种状态（上锁/未上锁：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备栏：武器/护甲/项链/戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*点击对应栏位弹出该类型装备背包界面。（仅显示该类型物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若当前栏位未装备任何装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若当前栏位已装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*点击对应栏位弹出气泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该气泡按钮，则该装备卸下至背包。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击更换按钮，则弹出该类型的装备背包界面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物属性以及成长系数由配置表配置。程序读取对应配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长评定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C级范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmin=min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmax=min+(max-min)/10*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B级范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bmin=Cmax+0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bmax=Cmin+(max-min)/10*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出的数字为Cmin~Cmax间，则该条属性评定为C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A级范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amin=Bmax+0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amax=Bmin+(max-min)/10*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S级范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smin=Amax+0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出的数字为Bmin~Bmax间，则该条属性评定为B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出的数字为Smin~Smax间，则该条属性评定为S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出的数字为Amin~Amax间，则该条属性评定为A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长评分等级分为：S/A/B/C    30%/30%/30%/10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smax=Amin+(max-min)/10*1-0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>已解锁休息栏位但还未选择随从时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.加号提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.点击该窗口跳转至随从背包界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解锁休息栏位时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.锁图标提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.点击该窗口弹出提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡面信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.卡牌成长等级：C/B/A/S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.卡牌等级：数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.卡牌属性：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.卡牌星级：1-5星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>探索状态下的随从无法参与休息以及编队。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在休息窗口点击探索中的随从时，弹出提示“该随从正在探险中”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击非探索中状态的随从，该界面关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*休息窗口处替换成选择的随从</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第x编队：根据该随从所在的编队。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>探索中，该随从正在执行探险时出现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4.卡牌状态信息： </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已选择：仅在该界面中出现，代表休息栏位中已有的随从。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*若点击有-已选择-状态的随从，则休息窗口处该随从取消显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好感值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好感值上限为100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好感值为100或溢出时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物好感等级+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好感值进度刷新，有溢出值则+溢出值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好感等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*满100时可开启契约功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒适度/好感值公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好感值/min =舒适度*1) / 1440</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间系统内的人物可拖动提起，松手放开。 只可以在地面区域摆放。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间系统内的人物好感值提升时，浮现好感值增加的UI。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅拥有独立的舒适度系统，放置人物在该区域挂机获得好感值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅场景由，地板、地毯、墙壁、床、桌子、墙壁挂饰 6种类型组成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统概述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家用来净化灵体成为实体的系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.神秘熔炉拥有4个素材放置栏位，必须放满4种素材才可以开启合成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石卡池1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石卡池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费货币抽取灵体的地方。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币卡池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.每个区域拥有独立的两种金币卡池，卡池内容不同。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.根据玩家已解锁的区域来判定该区域的金币卡池是否解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通卡池1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进阶卡池2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化槽位初始默认开启3个槽位。玩家新增槽位需要消耗一定的钻石以及有等级限制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩建消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币扩建上限5次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石扩建上限5次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该场景共设定14个槽位上限。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月卡栏位*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*根据配置表配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化完成时，该槽位的灵体需体现出净化完成的效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家点击该槽位，播放实体回收动画。完成净化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*需要UI表示体现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*可使用净化加速器来加快净化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该状态需显示净化所需时间倒计时以及进度条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击加速按钮弹出使用加速道具弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击该槽位弹出实体获得弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化完成后该槽位状态转变为 槽位待机状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽位上锁状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽位净化完成状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽位运行状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽位待机状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该状态点击弹出个人灵体背包。点击背包内的灵体后，该灵体icon出现在该槽位中。且该槽位状态更变为槽位运行状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该处默认显示灵体催化药剂的icon以及名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该处显示玩家选择使用的数量个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该处显示加速时间值，该值受使用个数的影响而变化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币扩建栏位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石扩建栏位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*玩家等级/金币/钻石条件不满足时，对应区域点击无效，且不满足的条件文字变色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击该槽位弹出拓展槽位弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽位扩建完成后，弹窗取消，该槽位变为槽位待机状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环流器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息弹窗</t>
-  </si>
-  <si>
-    <t>1.若当前图鉴内无该灵体对应的实体解锁，则按住该灵体出现的弹窗信息统一为 ”未知的灵体“，松手撤销；弹窗区域根据玩家点击区域判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.若当前图鉴内该灵体对应的实体已解锁，则按住该灵体出现弹窗信息为”(name)的灵体"  name=实体名称，松手撤销；弹窗区域根据玩家点击区域判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.按住显示弹窗，松手撤销。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.信息内容=物品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.文字颜色和物品稀有度等同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.边框颜色和物品稀有度等同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.点击图标弹出详细信息弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*若该物品不可使用，则不出现使用按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细信息弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*按住某一词缀区域，显示该装备该词缀数值的随机范围值，松手撤销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具/装备/灵体 获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字信息提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物名称位置。最大显示中文字符：6个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*点击修改名称，弹出修改名称框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物等级和经验进度条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击该按钮弹出赠送界面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*该区域显示玩家背包内的所有道具。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*排列：稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击该界面内物品后弹出数量选择框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.点击确定按钮后弹出信息确认框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.点击取消返回赠送物品的背包栏界面。  点击确认则回到人物信息界面，同时扣除材料，系统计算好感度加成数值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.该实体若在编队中则默认上锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.点击该按钮切换锁的状态（上锁/未上锁)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.若该实体处于编队中，点击该按钮，则弹出提示“该实体正处于编队中。不可解锁。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.实体处于锁定状态时，人物不可成为强化材料。（强化素材选择界面不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该按钮分为两种状态（上锁/未上锁：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备栏：武器/护甲/项链/戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*点击对应栏位弹出该类型装备背包界面。（仅显示该类型物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若当前栏位未装备任何装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若当前栏位已装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*点击对应栏位弹出气泡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击该气泡按钮，则该装备卸下至背包。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击更换按钮，则弹出该类型的装备背包界面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物属性以及成长系数由配置表配置。程序读取对应配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长评定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C级范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cmin=min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cmax=min+(max-min)/10*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B级范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bmin=Cmax+0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bmax=Cmin+(max-min)/10*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机出的数字为Cmin~Cmax间，则该条属性评定为C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A级范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amin=Bmax+0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amax=Bmin+(max-min)/10*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S级范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smin=Amax+0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机出的数字为Bmin~Bmax间，则该条属性评定为B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机出的数字为Smin~Smax间，则该条属性评定为S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机出的数字为Amin~Amax间，则该条属性评定为A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长评分等级分为：S/A/B/C    30%/30%/30%/10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smax=Amin+(max-min)/10*1-0.01</t>
+    <t>属性克制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击方属性克制被攻击方时，伤害方的攻击值*1.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即克制情况下有增伤。其余情况(包括玩家方被克制)没有伤害削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*暴击条件下，伤害方攻击值*1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义暴击变量a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=(攻击方敏捷-被攻击方敏捷)/4   该值向下取整。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c为装备增加的爆率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击方敏捷≤被攻击方敏捷时，a=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率=2%+a/(a+120)+c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若两方敏捷差的绝对值大于80，则向下只取到80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">攻击方敏捷大于被攻击方敏捷时，区间为  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0.8+0.3*敏捷差/80) 至 1.2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击方敏捷小于被攻击方敏捷时，区间为  0.8至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1.2-0.3*敏捷差/80)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害=基本攻击力*攻击伤害比*伤害浮动-防御*防御格挡比*防御浮动)*(1-伤害免疫)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害＜1时按1计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击伤害比固定值为0.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御格挡比固定值为0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御浮动为 防御值*0.75至1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害免疫   免伤技能类效果。比如下图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实伤害=基本攻击力*(1-伤害免疫)，不受防御影响。但受免伤效果削弱。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2845,7 +2924,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2913,6 +2991,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -22425,6 +22504,87 @@
         <a:xfrm>
           <a:off x="0" y="9477375"/>
           <a:ext cx="7323809" cy="6657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428296</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="2714625"/>
+          <a:ext cx="4457371" cy="2609193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>120241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695326" y="8029576"/>
+          <a:ext cx="1619250" cy="786990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22720,8 +22880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22741,37 +22901,37 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G4" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G5" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H6" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G12" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G13" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G27" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -22821,7 +22981,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
@@ -22839,501 +22999,501 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="38" t="s">
+    <row r="57" spans="2:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+    </row>
+    <row r="58" spans="2:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+    </row>
+    <row r="61" spans="2:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="38"/>
+      <c r="D61" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+    </row>
+    <row r="62" spans="2:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:8" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+    </row>
+    <row r="75" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+    </row>
+    <row r="76" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+    </row>
+    <row r="77" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+    </row>
+    <row r="78" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+    </row>
+    <row r="79" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+    </row>
+    <row r="80" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+    </row>
+    <row r="81" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+    </row>
+    <row r="82" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+    </row>
+    <row r="83" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+    </row>
+    <row r="84" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+    </row>
+    <row r="85" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+    </row>
+    <row r="86" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+    </row>
+    <row r="87" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+    </row>
+    <row r="88" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+    </row>
+    <row r="89" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+    </row>
+    <row r="90" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+    </row>
+    <row r="91" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+    </row>
+    <row r="92" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+    </row>
+    <row r="93" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+    </row>
+    <row r="94" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+    </row>
+    <row r="95" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+    </row>
+    <row r="96" spans="5:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+    </row>
+    <row r="97" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+    </row>
+    <row r="98" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+    </row>
+    <row r="99" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+    </row>
+    <row r="100" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+    </row>
+    <row r="101" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+    </row>
+    <row r="102" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+    </row>
+    <row r="103" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D104" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D105" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E106" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E110" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E112" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F113" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F114" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F115" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E116" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F117" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F118" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E120" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D123" s="37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D124" s="37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D125" s="37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D126" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-    </row>
-    <row r="58" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="38" t="s">
+    </row>
+    <row r="127" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D127" s="37" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="59" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-    </row>
-    <row r="61" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="39"/>
-      <c r="D61" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-    </row>
-    <row r="62" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D74" s="38" t="s">
+    <row r="128" spans="3:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D128" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-    </row>
-    <row r="75" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D75" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-    </row>
-    <row r="76" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-    </row>
-    <row r="77" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D77" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-    </row>
-    <row r="78" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-    </row>
-    <row r="79" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-    </row>
-    <row r="80" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D80" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-    </row>
-    <row r="81" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-    </row>
-    <row r="82" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-    </row>
-    <row r="83" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-    </row>
-    <row r="84" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-    </row>
-    <row r="85" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-    </row>
-    <row r="86" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-    </row>
-    <row r="87" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-    </row>
-    <row r="88" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-    </row>
-    <row r="89" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-    </row>
-    <row r="90" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-    </row>
-    <row r="91" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-    </row>
-    <row r="92" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-    </row>
-    <row r="93" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-    </row>
-    <row r="94" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-    </row>
-    <row r="95" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-    </row>
-    <row r="96" spans="5:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-    </row>
-    <row r="97" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-    </row>
-    <row r="98" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-    </row>
-    <row r="99" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-    </row>
-    <row r="100" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-    </row>
-    <row r="101" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-    </row>
-    <row r="102" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-    </row>
-    <row r="103" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D104" s="38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D105" s="38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E106" s="38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E108" s="38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="109" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E110" s="38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="3:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E112" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="113" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F113" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F114" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F115" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E116" s="38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F117" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F118" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E120" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="38" t="s">
+    </row>
+    <row r="129" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J131" s="37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K132" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K133" s="37" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="123" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D123" s="38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="124" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D124" s="38" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="125" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D125" s="38" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D126" s="38" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="127" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D127" s="38" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="128" spans="3:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D128" s="38" t="s">
+    <row r="134" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K134" s="37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K135" s="37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J137" s="37" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C130" s="38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J131" s="38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K132" s="38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K133" s="38" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K134" s="38" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K135" s="38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J137" s="38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K138" s="38" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K139" s="38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K140" s="38" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="40"/>
-    </row>
-    <row r="142" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K138" s="37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K139" s="37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K140" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="39"/>
+    </row>
+    <row r="142" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B170" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="C170" s="43"/>
-      <c r="D170" s="43"/>
-      <c r="E170" s="43"/>
-      <c r="F170" s="43"/>
-      <c r="G170" s="43"/>
-      <c r="H170" s="43"/>
+      <c r="B170" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="C170" s="42"/>
+      <c r="D170" s="42"/>
+      <c r="E170" s="42"/>
+      <c r="F170" s="42"/>
+      <c r="G170" s="42"/>
+      <c r="H170" s="42"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B171" s="43"/>
-      <c r="C171" s="43" t="s">
+      <c r="B171" s="42"/>
+      <c r="C171" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D171" s="43"/>
-      <c r="E171" s="43"/>
-      <c r="F171" s="43"/>
-      <c r="G171" s="43"/>
-      <c r="H171" s="43"/>
+      <c r="D171" s="42"/>
+      <c r="E171" s="42"/>
+      <c r="F171" s="42"/>
+      <c r="G171" s="42"/>
+      <c r="H171" s="42"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B173" s="2" t="s">
@@ -23367,8 +23527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA564"/>
   <sheetViews>
-    <sheetView topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="H542" sqref="H542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23572,7 +23732,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H100" s="2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -23947,7 +24107,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
@@ -24052,7 +24212,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B189" s="28" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
@@ -24161,7 +24321,7 @@
         <v>191</v>
       </c>
       <c r="K195" s="30" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.2">
@@ -24214,30 +24374,30 @@
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C205" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C206" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C207" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C208" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C209" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210" spans="2:18" x14ac:dyDescent="0.2">
@@ -24245,82 +24405,82 @@
     </row>
     <row r="211" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B211" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C212" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" s="33" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A253" s="35" t="s">
-        <v>220</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" s="32" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A253" s="34" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B255" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C256" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="258" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B258" s="2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="259" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C259" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="260" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C260" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="261" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C261" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D261" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="E261" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="F261" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G261" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="H261" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="I261" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="J261" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="K261" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="L261" s="36" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="261" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C261" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="D261" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E261" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F261" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="G261" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="H261" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I261" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="J261" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="K261" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="L261" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="M261" s="37" t="s">
-        <v>235</v>
+      <c r="M261" s="36" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="262" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C262" s="21" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="D262" s="21">
         <v>0</v>
@@ -24329,25 +24489,25 @@
         <v>0</v>
       </c>
       <c r="F262" s="21" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G262" s="21">
         <v>6010</v>
       </c>
       <c r="H262" s="21" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I262" s="21">
         <v>3230</v>
       </c>
       <c r="J262" s="21" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="K262" s="21">
         <v>600</v>
       </c>
       <c r="L262" s="21" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="M262" s="21">
         <v>160</v>
@@ -24355,12 +24515,12 @@
     </row>
     <row r="264" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C264" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="265" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C265" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="268" spans="2:18" x14ac:dyDescent="0.2">
@@ -24368,72 +24528,72 @@
     </row>
     <row r="269" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C269" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="270" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C270" s="2" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="271" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B271" s="2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="272" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C272" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="D272" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E272" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F272" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="G272" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="H272" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I272" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="J272" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="K272" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="L272" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="M272" s="37" t="s">
-        <v>235</v>
+      <c r="C272" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D272" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="E272" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="F272" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G272" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="H272" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="I272" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="J272" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="K272" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="L272" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="M272" s="36" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="273" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C273" s="21" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E273" s="21">
         <v>8060</v>
       </c>
       <c r="F273" s="21" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G273" s="21">
         <v>1900</v>
       </c>
       <c r="H273" s="21" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I273" s="21">
         <v>40</v>
@@ -24453,28 +24613,28 @@
     </row>
     <row r="274" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C274" s="21" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E274" s="21">
         <v>150</v>
       </c>
       <c r="F274" s="21" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G274" s="21">
         <v>8725</v>
       </c>
       <c r="H274" s="21" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I274" s="21">
         <v>1000</v>
       </c>
       <c r="J274" s="21" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="K274" s="21">
         <v>125</v>
@@ -24486,71 +24646,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A308" s="34" t="s">
-        <v>243</v>
+    <row r="308" spans="1:7" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A308" s="33" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G312" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F350" s="48"/>
-    </row>
-    <row r="351" spans="1:6" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A351" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="B351" s="53"/>
+      <c r="F350" s="47"/>
+    </row>
+    <row r="351" spans="1:6" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A351" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="B351" s="52"/>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B354" s="2" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B357" s="2" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B358" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B360" s="49" t="s">
-        <v>374</v>
-      </c>
-      <c r="C360" s="49" t="s">
-        <v>369</v>
-      </c>
-      <c r="D360" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="E360" s="49" t="s">
-        <v>368</v>
-      </c>
-      <c r="F360" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="G360" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="H360" s="49" t="s">
-        <v>375</v>
+      <c r="B360" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="C360" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="D360" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="E360" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="F360" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G360" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="H360" s="48" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
@@ -24558,10 +24718,10 @@
         <v>10001</v>
       </c>
       <c r="C361" s="21" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E361" s="21">
         <v>6</v>
@@ -24574,158 +24734,158 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B365" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C366" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C367" s="2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C368" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="369" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D369" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="370" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D370" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="372" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C372" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="382" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I382" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="384" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I384" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="387" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I387" s="2" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="389" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I389" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="392" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I392" s="2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="395" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I395" s="2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="397" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I397" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I413" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I414" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J415" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J416" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="417" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K417" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="418" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K418" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="419" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K419" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="420" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K420" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="421" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K421" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="425" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I425" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="428" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I428" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="429" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I429" s="2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="430" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I430" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="431" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I431" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="434" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O434" s="51" t="s">
-        <v>406</v>
-      </c>
-      <c r="P434" s="52" t="s">
-        <v>407</v>
+      <c r="O434" s="50" t="s">
+        <v>394</v>
+      </c>
+      <c r="P434" s="51" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="435" spans="9:16" x14ac:dyDescent="0.2">
@@ -24733,7 +24893,7 @@
         <v>1</v>
       </c>
       <c r="P435" s="21" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="436" spans="9:16" x14ac:dyDescent="0.2">
@@ -24741,7 +24901,7 @@
         <v>2</v>
       </c>
       <c r="P436" s="21" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="437" spans="9:16" x14ac:dyDescent="0.2">
@@ -24749,7 +24909,7 @@
         <v>3</v>
       </c>
       <c r="P437" s="21" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="438" spans="9:16" x14ac:dyDescent="0.2">
@@ -24757,278 +24917,278 @@
         <v>4</v>
       </c>
       <c r="P438" s="21" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="446" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I446" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="449" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I449" s="2" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="450" spans="9:26" x14ac:dyDescent="0.2">
       <c r="J450" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="454" spans="9:26" x14ac:dyDescent="0.2">
       <c r="X454" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="455" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y455" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="456" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y456" s="2" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="457" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y457" s="2" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="458" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y458" s="2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="459" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Z459" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="460" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Z460" s="2" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="461" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Z461" s="2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="462" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y462" s="2" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="464" spans="9:26" x14ac:dyDescent="0.2">
       <c r="X464" s="2" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="466" spans="9:25" x14ac:dyDescent="0.2">
       <c r="I466" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="X466" s="2" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="467" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J467" s="2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="468" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J468" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="X468" s="2" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="469" spans="9:25" x14ac:dyDescent="0.2">
       <c r="Y469" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="470" spans="9:25" x14ac:dyDescent="0.2">
       <c r="I470" s="2" t="s">
-        <v>418</v>
+        <v>571</v>
       </c>
       <c r="Y470" s="2" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="471" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J471" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="472" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J472" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="474" spans="9:25" x14ac:dyDescent="0.2">
       <c r="I474" s="2" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="475" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J475" s="2" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="476" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J476" s="2" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B497" s="2" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C498" s="2" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C499" s="2" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D500" s="2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D501" s="2" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B503" s="2" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C504" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B507" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="508" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C508" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="510" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B510" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C511" s="2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C512" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="514" spans="1:27" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A514" s="55" t="s">
-        <v>502</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="514" spans="1:27" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A514" s="54" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="516" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="517" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B517" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="AA517" s="2" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="519" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="Q519" s="1" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="520" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B520" s="2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="R520" s="2" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="AA520" s="2" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="521" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B521" s="2" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="R521" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="522" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B522" s="2" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="AA522" s="2" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="523" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B523" s="1" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="524" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C524" s="2" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="525" spans="1:27" x14ac:dyDescent="0.2">
       <c r="Q525" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="526" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C526" s="52" t="s">
-        <v>469</v>
-      </c>
-      <c r="D526" s="52" t="s">
-        <v>470</v>
-      </c>
-      <c r="E526" s="52" t="s">
-        <v>471</v>
+      <c r="C526" s="51" t="s">
+        <v>456</v>
+      </c>
+      <c r="D526" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="E526" s="51" t="s">
+        <v>458</v>
       </c>
       <c r="R526" s="2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="527" spans="1:27" x14ac:dyDescent="0.2">
@@ -25041,7 +25201,7 @@
       <c r="E527" s="21"/>
       <c r="P527"/>
       <c r="R527" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="528" spans="1:27" x14ac:dyDescent="0.2">
@@ -25062,7 +25222,7 @@
       </c>
       <c r="E529" s="21"/>
       <c r="U529" s="2" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="530" spans="1:21" x14ac:dyDescent="0.2">
@@ -25085,23 +25245,23 @@
     </row>
     <row r="533" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C533" s="2" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="534" spans="1:21" x14ac:dyDescent="0.2">
       <c r="U534" s="2" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="535" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C535" s="51" t="s">
-        <v>472</v>
-      </c>
-      <c r="D535" s="52" t="s">
-        <v>473</v>
-      </c>
-      <c r="E535" s="52" t="s">
-        <v>474</v>
+      <c r="C535" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="D535" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="E535" s="51" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="536" spans="1:21" x14ac:dyDescent="0.2">
@@ -25140,7 +25300,7 @@
       </c>
       <c r="E539" s="21"/>
       <c r="Q539" s="2" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="540" spans="1:21" x14ac:dyDescent="0.2">
@@ -25154,59 +25314,59 @@
     </row>
     <row r="542" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="Q542" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="543" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B543" s="2" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="R543" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="544" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B544" s="2" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="R544" s="2" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B545" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B548" s="2" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="549" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B549" s="2" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q558" s="1" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R559" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="564" s="54" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="564" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25219,8 +25379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M193" sqref="M193"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25230,432 +25390,432 @@
     <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="56" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
-        <v>503</v>
+    <row r="1" spans="1:10" s="55" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H6" s="1" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I7" s="2" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I8" s="2" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H11" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I12" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J13" s="2" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J14" s="2" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J16" s="1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="9:21" x14ac:dyDescent="0.2">
       <c r="L18" s="2" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="9:21" x14ac:dyDescent="0.2">
       <c r="L19" s="2" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I24" s="1" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="9:21" x14ac:dyDescent="0.2">
       <c r="J25" s="2" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="9:21" x14ac:dyDescent="0.2">
       <c r="J26" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="9:21" x14ac:dyDescent="0.2">
       <c r="J28" s="1" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="9:21" x14ac:dyDescent="0.2">
       <c r="N30" s="2" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="9:21" x14ac:dyDescent="0.2">
       <c r="N31" s="2" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="9:21" x14ac:dyDescent="0.2">
       <c r="N32" s="2" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.2">
       <c r="N33" s="2" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.2">
       <c r="N34" s="2" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="43" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I43" s="1" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J44" s="2" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J45" s="2" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J46" s="2" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J47" s="2" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J48" s="2" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="10:24" x14ac:dyDescent="0.2">
       <c r="Q49" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J50" s="2" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="10:24" x14ac:dyDescent="0.2">
       <c r="N53" s="2" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="10:24" x14ac:dyDescent="0.2">
       <c r="N54" s="2" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55" spans="10:24" x14ac:dyDescent="0.2">
       <c r="N55" s="2" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56" spans="10:24" x14ac:dyDescent="0.2">
       <c r="N56" s="2" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="57" spans="10:24" x14ac:dyDescent="0.2">
       <c r="N57" s="2" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="10:24" x14ac:dyDescent="0.2">
       <c r="X60" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="57" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A125" s="55" t="s">
-        <v>535</v>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="56" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A125" s="54" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A158" s="55" t="s">
-        <v>539</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A158" s="54" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="162" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H162" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="163" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H163" s="2" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="164" spans="8:17" x14ac:dyDescent="0.2">
       <c r="Q164" s="2" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="165" spans="8:17" x14ac:dyDescent="0.2">
       <c r="Q165" s="2" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
     </row>
     <row r="166" spans="8:17" x14ac:dyDescent="0.2">
       <c r="Q166" s="2" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="172" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H172" s="2" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H174" s="2" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
     </row>
     <row r="175" spans="8:17" x14ac:dyDescent="0.2">
       <c r="Q175" s="2" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="187" spans="8:17" x14ac:dyDescent="0.2">
       <c r="Q187" s="2" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="192" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H192" s="1" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
     </row>
     <row r="193" spans="8:14" x14ac:dyDescent="0.2">
       <c r="I193" s="2" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="194" spans="8:14" x14ac:dyDescent="0.2">
       <c r="I194" s="2" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="195" spans="8:14" x14ac:dyDescent="0.2">
       <c r="I195" s="2" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
     </row>
     <row r="196" spans="8:14" x14ac:dyDescent="0.2">
       <c r="I196" s="2" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="198" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H198" s="1" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="199" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H199" s="2" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="200" spans="8:14" x14ac:dyDescent="0.2">
       <c r="I200" s="2" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="201" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H201" s="2" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="202" spans="8:14" x14ac:dyDescent="0.2">
       <c r="I202" s="2" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="204" spans="8:14" x14ac:dyDescent="0.2">
       <c r="M204" s="2" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="205" spans="8:14" x14ac:dyDescent="0.2">
       <c r="N205" s="2" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="206" spans="8:14" x14ac:dyDescent="0.2">
       <c r="M206" s="2" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="207" spans="8:14" x14ac:dyDescent="0.2">
       <c r="N207" s="2" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="218" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H218" s="1" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I219" s="2" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I220" s="2" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="221" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J221" s="2" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="222" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J222" s="2" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="223" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="K223" s="66" t="s">
-        <v>567</v>
+      <c r="K223" s="65" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="224" spans="8:12" x14ac:dyDescent="0.2">
       <c r="L224" s="2" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="225" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L225" s="2" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="226" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L226" s="2" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="227" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K227" s="2" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="228" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L228" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="Z228" s="67"/>
+        <v>558</v>
+      </c>
+      <c r="Z228" s="66"/>
     </row>
     <row r="229" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L229" s="2" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="230" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L230" s="2" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="231" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K231" s="2" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="232" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L232" s="2" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="233" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L233" s="2" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
     </row>
     <row r="234" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L234" s="2" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="235" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K235" s="2" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L236" s="2" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="237" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L237" s="2" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="238" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L238" s="2" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -25670,466 +25830,466 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9" style="39"/>
-    <col min="9" max="9" width="12.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="11.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9" style="38"/>
+    <col min="9" max="9" width="12.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="38" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="39" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="C9" s="39" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" s="39" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="38" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="39" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>338</v>
+    <row r="29" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>336</v>
+      <c r="A31" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>340</v>
+      <c r="A32" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>355</v>
+      <c r="A33" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>363</v>
+      <c r="A34" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="K43" s="43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="43">
+        <v>3</v>
+      </c>
+      <c r="D44" s="43">
+        <v>6</v>
+      </c>
+      <c r="E44" s="43">
+        <v>1</v>
+      </c>
+      <c r="F44" s="43">
+        <v>3</v>
+      </c>
+      <c r="G44" s="43">
+        <v>2</v>
+      </c>
+      <c r="H44" s="43">
+        <v>1</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="J44" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="B43" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="D43" s="44" t="s">
+      <c r="K44" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="C45" s="43">
+        <v>7</v>
+      </c>
+      <c r="D45" s="43">
+        <v>8</v>
+      </c>
+      <c r="E45" s="43">
+        <v>1</v>
+      </c>
+      <c r="F45" s="43">
+        <v>3</v>
+      </c>
+      <c r="G45" s="43">
+        <v>1</v>
+      </c>
+      <c r="H45" s="43">
+        <v>1</v>
+      </c>
+      <c r="I45" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="J45" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="E43" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="I43" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="J43" s="44" t="s">
+      <c r="K45" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="K43" s="44" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="C44" s="44">
+      <c r="B46" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="C46" s="43">
+        <v>18</v>
+      </c>
+      <c r="D46" s="43">
+        <v>20</v>
+      </c>
+      <c r="E46" s="43">
+        <v>1</v>
+      </c>
+      <c r="F46" s="43">
+        <v>5</v>
+      </c>
+      <c r="G46" s="43">
         <v>3</v>
       </c>
-      <c r="D44" s="44">
+      <c r="H46" s="43">
+        <v>4</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="K46" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="C47" s="43">
+        <v>7</v>
+      </c>
+      <c r="D47" s="43">
+        <v>8</v>
+      </c>
+      <c r="E47" s="43">
+        <v>1</v>
+      </c>
+      <c r="F47" s="43">
+        <v>3</v>
+      </c>
+      <c r="G47" s="43">
+        <v>7</v>
+      </c>
+      <c r="H47" s="43">
+        <v>3</v>
+      </c>
+      <c r="I47" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="K47" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48" s="43">
+        <v>13</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="E48" s="43">
+        <v>1</v>
+      </c>
+      <c r="F48" s="43">
+        <v>5</v>
+      </c>
+      <c r="G48" s="43">
+        <v>8</v>
+      </c>
+      <c r="H48" s="43">
+        <v>0</v>
+      </c>
+      <c r="I48" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="K48" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="C49" s="43">
         <v>6</v>
       </c>
-      <c r="E44" s="44">
+      <c r="D49" s="43">
+        <v>12</v>
+      </c>
+      <c r="E49" s="43">
         <v>1</v>
       </c>
-      <c r="F44" s="44">
-        <v>3</v>
-      </c>
-      <c r="G44" s="44">
-        <v>2</v>
-      </c>
-      <c r="H44" s="44">
+      <c r="F49" s="43">
+        <v>5</v>
+      </c>
+      <c r="G49" s="43">
         <v>1</v>
       </c>
-      <c r="I44" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="J44" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="K44" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="C45" s="44">
-        <v>7</v>
-      </c>
-      <c r="D45" s="44">
-        <v>8</v>
-      </c>
-      <c r="E45" s="44">
+      <c r="H49" s="43">
         <v>1</v>
       </c>
-      <c r="F45" s="44">
-        <v>3</v>
-      </c>
-      <c r="G45" s="44">
-        <v>1</v>
-      </c>
-      <c r="H45" s="44">
-        <v>1</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="J45" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="K45" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="B46" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="C46" s="44">
-        <v>18</v>
-      </c>
-      <c r="D46" s="44">
-        <v>20</v>
-      </c>
-      <c r="E46" s="44">
-        <v>1</v>
-      </c>
-      <c r="F46" s="44">
-        <v>5</v>
-      </c>
-      <c r="G46" s="44">
-        <v>3</v>
-      </c>
-      <c r="H46" s="44">
-        <v>4</v>
-      </c>
-      <c r="I46" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="J46" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="K46" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="B47" s="44" t="s">
+      <c r="I49" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="C47" s="44">
-        <v>7</v>
-      </c>
-      <c r="D47" s="44">
-        <v>8</v>
-      </c>
-      <c r="E47" s="44">
-        <v>1</v>
-      </c>
-      <c r="F47" s="44">
-        <v>3</v>
-      </c>
-      <c r="G47" s="44">
-        <v>7</v>
-      </c>
-      <c r="H47" s="44">
-        <v>3</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="J47" s="44" t="s">
+      <c r="J49" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="K47" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="C48" s="44">
-        <v>13</v>
-      </c>
-      <c r="D48" s="44" t="s">
+      <c r="K49" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="E48" s="44">
-        <v>1</v>
-      </c>
-      <c r="F48" s="44">
-        <v>5</v>
-      </c>
-      <c r="G48" s="44">
-        <v>8</v>
-      </c>
-      <c r="H48" s="44">
-        <v>0</v>
-      </c>
-      <c r="I48" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="J48" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="K48" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="C49" s="44">
-        <v>6</v>
-      </c>
-      <c r="D49" s="44">
-        <v>12</v>
-      </c>
-      <c r="E49" s="44">
-        <v>1</v>
-      </c>
-      <c r="F49" s="44">
-        <v>5</v>
-      </c>
-      <c r="G49" s="44">
-        <v>1</v>
-      </c>
-      <c r="H49" s="44">
-        <v>1</v>
-      </c>
-      <c r="I49" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="J49" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="K49" s="44" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="50" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26140,78 +26300,158 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A2:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
-        <v>211</v>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="S13" s="67"/>
+    </row>
+    <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="S14" s="67"/>
+    </row>
+    <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="S15" s="67"/>
+    </row>
+    <row r="17" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="S17" s="67"/>
+    </row>
+    <row r="19" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="S19" s="67"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="2" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -26248,10 +26488,10 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -26261,8 +26501,8 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
@@ -26270,8 +26510,8 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
@@ -26280,8 +26520,8 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
@@ -26289,8 +26529,8 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -26298,8 +26538,8 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
@@ -26307,8 +26547,8 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -26316,53 +26556,53 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="59"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>

--- a/文档/文档/系统.xlsx
+++ b/文档/文档/系统.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="系统构架" sheetId="1" r:id="rId1"/>
     <sheet name="战斗系统" sheetId="3" r:id="rId2"/>
     <sheet name="城镇" sheetId="4" r:id="rId3"/>
     <sheet name="其他系统" sheetId="7" r:id="rId4"/>
-    <sheet name="角色" sheetId="6" r:id="rId5"/>
+    <sheet name="实体" sheetId="6" r:id="rId5"/>
     <sheet name="公式" sheetId="5" r:id="rId6"/>
     <sheet name="经济系统" sheetId="2" r:id="rId7"/>
   </sheets>
@@ -24,40 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="G43" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1.下一击攻击附带
-2.对自身释放
-3.对已方释放
-4.对敌方释放
-5.对全局随机释放
-6.对已方随机释放
-7.对敌方随机释放
-8.范围释放</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="616">
   <si>
     <t>2.1 货币介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1329,187 +1297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻滚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满级等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能冷却</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能目标值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageS10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能字段1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flash,x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flash,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s10002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageS10002</t>
-  </si>
-  <si>
-    <t>attack,x,y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">造成伤害,x=伤害值(百分比。Y=攻击次数   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack,0.8|1,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝着目标闪现位移一段距离，过程躲闪攻击。 X值=位移距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff1,x,y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升攻击力，x=提升值(百分比。Y=持续时间s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s10003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageS10003</t>
-  </si>
-  <si>
-    <t>buff1,15,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s10004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageS10004</t>
-  </si>
-  <si>
-    <t>attack,0.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s10005</t>
-  </si>
-  <si>
-    <t>imageS10005</t>
-  </si>
-  <si>
-    <t>嘲讽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taunt,x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽。X=嘲讽时间，y=该角色自身圆形范围内距离。(y无则不填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s10006</t>
-  </si>
-  <si>
-    <t>挑衅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageS10006</t>
-  </si>
-  <si>
-    <t>tanunt,3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tanunt,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能字段2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>downatk,x,y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低攻击。 X=降低值(百分比。 Y=持续时间s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>downatk,0.11,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2389,6 +2176,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义暴击变量a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=(攻击方敏捷-被攻击方敏捷)/4   该值向下取整。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c为装备增加的爆率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若两方敏捷差的绝对值大于80，则向下只取到80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害=基本攻击力*攻击伤害比*伤害浮动-防御*防御格挡比*防御浮动)*(1-伤害免疫)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害＜1时按1计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击伤害比固定值为0.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御格挡比固定值为0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御浮动为 防御值*0.75至1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害免疫   免伤技能类效果。比如下图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实伤害=基本攻击力*(1-伤害免疫)，不受防御影响。但受免伤效果削弱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>攻击方属性克制被攻击方时，伤害方的攻击值*1.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2397,14 +2248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>敏捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*暴击条件下，伤害方攻击值*1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2413,31 +2256,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定义暴击变量a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=(攻击方敏捷-被攻击方敏捷)/4   该值向下取整。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c为装备增加的爆率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当攻击方敏捷≤被攻击方敏捷时，a=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴击率=2%+a/(a+120)+c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害浮动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若两方敏捷差的绝对值大于80，则向下只取到80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2475,39 +2298,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害=基本攻击力*攻击伤害比*伤害浮动-防御*防御格挡比*防御浮动)*(1-伤害免疫)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害＜1时按1计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击伤害比固定值为0.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御格挡比固定值为0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御浮动为 防御值*0.75至1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害免疫   免伤技能类效果。比如下图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实伤害=基本攻击力*(1-伤害免疫)，不受防御影响。但受免伤效果削弱。</t>
+    <t>好感值进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该处显示实体当前好感值的进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*长按技能图标弹出技能描述面板,松手撤销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*技能突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示技能突破等级和突破经验值进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*显示目前实体的潜能阶段以及最大等级上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜能系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示实体星际，实体成长评级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示该实体的阶段等级，以及等级的最大上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示突破当前阶段等级需要的材料及数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量不足和数量已满足需要做出区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可点击状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击突破按钮后，该界面关闭，实体属性界面的阶段和等级上限数值提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可点击状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家突破材料不足时，该按钮不可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击潜能按钮弹出潜能系统界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击强化按钮弹出强化系统界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示人物等级和经验进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示实体形象，播放待机动作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统默认3个材料选择栏位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏位状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待填充状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示实体的基本信息（同卡牌背包界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击填充状态的取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该区域进入材料选择窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料选择窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*点击任意卡片，该界面关闭。 待填充栏位处变为已选择的材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可点击状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家在强化材料栏内有任意一个已选择材料时，该按钮可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击后该界面关闭，实体属性界面的经验值进度播放进度动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可点击状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家在强化材料栏内没有选择材料时，该按钮不可点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓约系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该按钮弹出誓约系统界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示好感值进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">显示誓约要求。并提示是否达成。  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定按钮。当玩家誓约要求都为已达成时，该按钮出现。反之不出现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*初始默认为0，上限100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*玩家通过送礼物来增加对应实体的好感值。（读表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*好感值100时，可通过消耗 誓约之书 和实体签订契约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*签订契约后，该实体好感值上限变为150.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*玩家获得 契约之心*1 道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图暂缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选择一个实体，指定其4围属性中的一条进行重新随机。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感值每1点增加0.05%全属性（攻击/防御/敏捷/生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*吞噬一样的实体获得额外的技能突破经验。技能突破经验满时，系统自动提升实体技能的一个等级（若实体拥有两个技能时则按顺序提升，玩家无法指定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*该窗口内，和该实体一样的实体材料做出特殊标注。如下图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用相同的实体进行强化可以提升1点突破经验，达到特定突破经验后后可以达成技能突破，提升一个技能的等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1星和2星的实体都只有1个技能，可突破4次，技能最高等级为5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3星、4星和5星魔物娘有2个技能，可突破4次，每个技能最高等级为3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗指定材料进行潜能阶段的突破，来增加等级上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素克制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2515,7 +2566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2671,14 +2722,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2871,7 +2914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2936,20 +2979,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2965,6 +3000,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2989,9 +3027,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3143,7 +3199,7 @@
         <xdr:cNvPr id="125" name="矩形 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,7 +3259,7 @@
         <xdr:cNvPr id="2" name="矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3319,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B2BF022-23A6-467A-81E1-19EC305EFC34}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2BF022-23A6-467A-81E1-19EC305EFC34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3326,7 +3382,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B100BD83-D85A-4C06-B53A-14C9386E8B03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B100BD83-D85A-4C06-B53A-14C9386E8B03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3398,7 +3454,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51526E19-94A1-4255-A926-245DA024AF87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51526E19-94A1-4255-A926-245DA024AF87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3518,7 @@
         <xdr:cNvPr id="8" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED4102E9-C5D8-4C1E-B261-ABCC2D4AF7B3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4102E9-C5D8-4C1E-B261-ABCC2D4AF7B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3526,7 +3582,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{637B0498-9A4D-44DD-BD16-F8DCAA51FCA7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637B0498-9A4D-44DD-BD16-F8DCAA51FCA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3594,7 +3650,7 @@
         <xdr:cNvPr id="12" name="矩形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3E914B5-11B4-4AAA-A1EB-D0BECDB26C77}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E914B5-11B4-4AAA-A1EB-D0BECDB26C77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,7 +3731,7 @@
         <xdr:cNvPr id="13" name="矩形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F270FCC1-8F02-4350-AFE0-E3B6E9D52ECF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F270FCC1-8F02-4350-AFE0-E3B6E9D52ECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3741,7 +3797,7 @@
         <xdr:cNvPr id="14" name="文本框 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78B31F25-953E-454C-B09B-E0F837A2CC30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B31F25-953E-454C-B09B-E0F837A2CC30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3816,7 +3872,7 @@
         <xdr:cNvPr id="15" name="矩形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3893,7 +3949,7 @@
         <xdr:cNvPr id="23" name="矩形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3970,7 +4026,7 @@
         <xdr:cNvPr id="24" name="矩形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4047,7 +4103,7 @@
         <xdr:cNvPr id="25" name="矩形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4124,7 +4180,7 @@
         <xdr:cNvPr id="26" name="矩形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21DDE71E-CD2A-43CC-BA95-31DE86EE7B0B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DDE71E-CD2A-43CC-BA95-31DE86EE7B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4187,7 +4243,7 @@
         <xdr:cNvPr id="31" name="矩形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20E413CF-E69C-431A-B70B-280EC1DEB644}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E413CF-E69C-431A-B70B-280EC1DEB644}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4250,7 +4306,7 @@
         <xdr:cNvPr id="32" name="矩形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E9BF090-DFAF-4425-86D1-49CFC9E3EE43}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9BF090-DFAF-4425-86D1-49CFC9E3EE43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4318,7 +4374,7 @@
         <xdr:cNvPr id="33" name="箭头: 上弧形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DA0E5BC-FE32-45EF-A8D3-9C689F395FDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA0E5BC-FE32-45EF-A8D3-9C689F395FDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4382,7 +4438,7 @@
         <xdr:cNvPr id="34" name="椭圆 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61B59BC8-B668-464B-B188-CE3710D31973}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B59BC8-B668-464B-B188-CE3710D31973}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4445,7 +4501,7 @@
         <xdr:cNvPr id="35" name="矩形 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4522,7 +4578,7 @@
         <xdr:cNvPr id="36" name="椭圆 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,7 +4641,7 @@
         <xdr:cNvPr id="37" name="椭圆 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4648,7 +4704,7 @@
         <xdr:cNvPr id="38" name="箭头: 下弧形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4712,7 +4768,7 @@
         <xdr:cNvPr id="39" name="椭圆 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4775,7 +4831,7 @@
         <xdr:cNvPr id="40" name="矩形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576A5619-A65C-4FEF-A2DC-D1CEBF47BD54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576A5619-A65C-4FEF-A2DC-D1CEBF47BD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4835,7 +4891,7 @@
         <xdr:cNvPr id="44" name="矩形 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4898,7 +4954,7 @@
         <xdr:cNvPr id="59" name="矩形 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0164B002-7831-462F-841D-835A27E9AC33}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0164B002-7831-462F-841D-835A27E9AC33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4965,7 +5021,7 @@
         <xdr:cNvPr id="76" name="图片 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13806A2E-D8EB-4CC5-98D1-40F44DF499AD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13806A2E-D8EB-4CC5-98D1-40F44DF499AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5009,7 +5065,7 @@
         <xdr:cNvPr id="77" name="图片 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAE4DE3A-A508-4CE7-BA67-80B81237A199}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE4DE3A-A508-4CE7-BA67-80B81237A199}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5053,7 +5109,7 @@
         <xdr:cNvPr id="81" name="矩形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A37569F0-1000-4FB2-8F40-F4CD5FDD3624}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37569F0-1000-4FB2-8F40-F4CD5FDD3624}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5118,7 +5174,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C20B7DBC-4C70-4451-B2D6-37F62FEC5869}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20B7DBC-4C70-4451-B2D6-37F62FEC5869}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5181,7 +5237,7 @@
         <xdr:cNvPr id="83" name="矩形 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E4AAD4-4CC5-46A3-9668-29DBB28D5D20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E4AAD4-4CC5-46A3-9668-29DBB28D5D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5241,7 +5297,7 @@
         <xdr:cNvPr id="84" name="矩形 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5305,7 +5361,7 @@
         <xdr:cNvPr id="85" name="矩形 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDF20CFF-8532-42C7-9388-90570096D494}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF20CFF-8532-42C7-9388-90570096D494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5373,7 +5429,7 @@
         <xdr:cNvPr id="86" name="矩形 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7065E750-85A8-457A-B728-4BA987CE0073}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7065E750-85A8-457A-B728-4BA987CE0073}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5441,7 +5497,7 @@
         <xdr:cNvPr id="87" name="矩形 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD03E14A-9B8F-46A0-96C3-DAF4DB6C8799}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD03E14A-9B8F-46A0-96C3-DAF4DB6C8799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5681,128 +5737,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="矩形 88"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2219325" y="14306550"/>
-          <a:ext cx="2886075" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>主动技能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>lv.1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>消耗：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>20 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> 冷却：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>10s</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="800">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>提高自身</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>20%</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的血量上限。  </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>191</xdr:row>
@@ -5819,7 +5753,7 @@
         <xdr:cNvPr id="90" name="矩形 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5883,7 +5817,7 @@
         <xdr:cNvPr id="91" name="矩形 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5947,7 +5881,7 @@
         <xdr:cNvPr id="92" name="矩形 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6011,7 +5945,7 @@
         <xdr:cNvPr id="93" name="矩形 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6075,7 +6009,7 @@
         <xdr:cNvPr id="94" name="矩形 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6139,7 +6073,7 @@
         <xdr:cNvPr id="95" name="矩形 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6203,7 +6137,7 @@
         <xdr:cNvPr id="96" name="矩形 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C124D2-96ED-4A1F-ADA9-3AFBD51A7279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6267,7 +6201,7 @@
         <xdr:cNvPr id="97" name="矩形 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB47CA34-3055-48F4-985E-28F7938D43FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6330,7 +6264,7 @@
         <xdr:cNvPr id="98" name="矩形 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6394,7 +6328,7 @@
         <xdr:cNvPr id="99" name="矩形 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663DC41B-36FF-499E-9F50-709A426973CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6475,7 +6409,7 @@
         <xdr:cNvPr id="100" name="矩形 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492749A2-EC1B-4DD5-8D68-38774155B304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6556,7 +6490,7 @@
         <xdr:cNvPr id="101" name="矩形 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8F8F79-77DD-4052-B78C-86FD2F5883F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6637,7 +6571,7 @@
         <xdr:cNvPr id="102" name="矩形 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F064B9A-1D1A-4976-8159-49AC208C0A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6718,7 +6652,7 @@
         <xdr:cNvPr id="103" name="矩形 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6776,7 +6710,7 @@
         <xdr:cNvPr id="104" name="矩形 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6892,7 +6826,7 @@
         <xdr:cNvPr id="107" name="矩形 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6950,7 +6884,7 @@
         <xdr:cNvPr id="108" name="矩形 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7066,7 +7000,7 @@
         <xdr:cNvPr id="110" name="矩形 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7124,7 +7058,7 @@
         <xdr:cNvPr id="111" name="矩形 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7240,7 +7174,7 @@
         <xdr:cNvPr id="113" name="矩形 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7298,7 +7232,7 @@
         <xdr:cNvPr id="114" name="矩形 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7414,7 +7348,7 @@
         <xdr:cNvPr id="116" name="矩形 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F5C027-F067-4153-BF75-FF9805DE0392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7472,7 +7406,7 @@
         <xdr:cNvPr id="117" name="矩形 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8145D3-133E-4C0B-BADE-30D92F10292E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7535,7 +7469,7 @@
         <xdr:cNvPr id="118" name="矩形 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954214BE-DF53-4D49-AE91-2785A0AE08F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7599,7 +7533,7 @@
         <xdr:cNvPr id="70" name="矩形 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9234A242-92AE-4631-A681-4EB998017AF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7676,7 +7610,7 @@
         <xdr:cNvPr id="71" name="椭圆 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC8BB6D-13B4-43ED-8CD7-665843E2A330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7739,7 +7673,7 @@
         <xdr:cNvPr id="72" name="椭圆 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFEEB5B-373B-43EE-BEC1-B221837F2388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7802,7 +7736,7 @@
         <xdr:cNvPr id="73" name="箭头: 下弧形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4923D9-996D-4AD9-9203-5A45CE30155E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7866,7 +7800,7 @@
         <xdr:cNvPr id="74" name="椭圆 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EBA076-C5F1-4589-B3E9-8F28C2563E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9245,7 +9179,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12691,7 +12625,7 @@
         <xdr:cNvPr id="81" name="矩形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12751,7 +12685,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14873,7 +14807,7 @@
         <xdr:cNvPr id="116" name="矩形 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17002,7 +16936,7 @@
         <xdr:cNvPr id="133" name="矩形 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17170,7 +17104,7 @@
         <xdr:cNvPr id="145" name="矩形 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17651,7 +17585,7 @@
         <xdr:cNvPr id="146" name="矩形 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17711,7 +17645,7 @@
         <xdr:cNvPr id="147" name="矩形 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F16CC-DD50-4A02-B750-B259CA48645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20199,20 +20133,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304248</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>113323</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>210906</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="83" name="图片 82"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20225,8 +20159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="333375"/>
-          <a:ext cx="4419048" cy="7819048"/>
+          <a:off x="12792075" y="55911750"/>
+          <a:ext cx="1134831" cy="1762125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20235,116 +20169,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2524125" y="990600"/>
-          <a:ext cx="2162175" cy="57150"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2343150" y="1504950"/>
-          <a:ext cx="2447925" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>162566</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>110762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="70" name="图片 69"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20357,8 +20197,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="3048001"/>
-          <a:ext cx="1371600" cy="991240"/>
+          <a:off x="5257800" y="54883051"/>
+          <a:ext cx="2676525" cy="4758961"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20369,20 +20209,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>475932</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>85475</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304248</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>113323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20395,8 +20235,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162675" y="5219700"/>
-          <a:ext cx="2542857" cy="2000000"/>
+          <a:off x="0" y="333375"/>
+          <a:ext cx="4419048" cy="7819048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20405,22 +20245,116 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="990600"/>
+          <a:ext cx="2162175" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="1504950"/>
+          <a:ext cx="2447925" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>403407</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>162566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20433,8 +20367,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10953750" y="5143501"/>
-          <a:ext cx="2479857" cy="2857500"/>
+          <a:off x="5905500" y="3048001"/>
+          <a:ext cx="1371600" cy="991240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20445,20 +20379,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>180434</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>37505</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>475932</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20471,8 +20405,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10944225" y="9105900"/>
-          <a:ext cx="4323809" cy="4761905"/>
+          <a:off x="6162675" y="5219700"/>
+          <a:ext cx="2542857" cy="2000000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20483,159 +20417,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>475932</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>18800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403407</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6162675" y="9315450"/>
-          <a:ext cx="2542857" cy="2000000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14859000" y="10839450"/>
-          <a:ext cx="838200" cy="981076"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="矩形 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12630150" y="13439775"/>
-          <a:ext cx="1076325" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685293</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>56251</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20648,8 +20443,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="15020925"/>
-          <a:ext cx="4057143" cy="7190476"/>
+          <a:off x="10953750" y="5143501"/>
+          <a:ext cx="2479857" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20660,20 +20455,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>570837</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>123227</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180434</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>37505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20686,8 +20481,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66675" y="23336250"/>
-          <a:ext cx="5304762" cy="4780952"/>
+          <a:off x="10944225" y="9105900"/>
+          <a:ext cx="4323809" cy="4761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20698,20 +20493,159 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>409098</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>132871</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>475932</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>18800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="9315450"/>
+          <a:ext cx="2542857" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14859000" y="10839450"/>
+          <a:ext cx="838200" cy="981076"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="13439775"/>
+          <a:ext cx="1076325" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685293</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>56251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20724,8 +20658,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191250" y="23393400"/>
-          <a:ext cx="3819048" cy="3828571"/>
+          <a:off x="57150" y="15020925"/>
+          <a:ext cx="4057143" cy="7190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20736,20 +20670,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104268</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>66392</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>570837</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>123227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPr id="17" name="图片 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20762,8 +20696,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10448925" y="23441025"/>
-          <a:ext cx="4057143" cy="2266667"/>
+          <a:off x="66675" y="23336250"/>
+          <a:ext cx="5304762" cy="4780952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20772,136 +20706,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="矩形 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12211050" y="23498175"/>
-          <a:ext cx="619125" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="95000"/>
-            <a:lumOff val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="466794" cy="283411"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="文本框 20"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12306300" y="23479125"/>
-          <a:ext cx="466794" cy="283411"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>信息</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>170943</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>65776</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409098</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>132871</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="18" name="图片 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20914,8 +20734,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="29060775"/>
-          <a:ext cx="4057143" cy="7190476"/>
+          <a:off x="6191250" y="23393400"/>
+          <a:ext cx="3819048" cy="3828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20924,69 +20744,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1600200" y="29356050"/>
-          <a:ext cx="2971800" cy="447676"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>139141</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104268</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>66392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPr id="19" name="图片 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20999,6 +20772,243 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="10448925" y="23441025"/>
+          <a:ext cx="4057143" cy="2266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211050" y="23498175"/>
+          <a:ext cx="619125" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文本框 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12306300" y="23479125"/>
+          <a:ext cx="466794" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170943</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>65776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="29060775"/>
+          <a:ext cx="4057143" cy="7190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1600200" y="29356050"/>
+          <a:ext cx="2971800" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>139141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="4848225" y="29708476"/>
           <a:ext cx="1952625" cy="1186890"/>
         </a:xfrm>
@@ -21124,7 +21134,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -21579,7 +21589,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -22003,7 +22013,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -22155,7 +22165,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -22317,6 +22327,1393 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="34051875"/>
+          <a:ext cx="1219200" cy="9639300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接箭头连接符 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="34461450"/>
+          <a:ext cx="2724150" cy="10001250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523649</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>76021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="44605575"/>
+          <a:ext cx="1809524" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="矩形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="44748450"/>
+          <a:ext cx="2886075" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>主动技能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>lv.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>消耗：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>20      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>冷却：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10s</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下一击</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>打出连续的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>次攻击，每次造成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>80%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>至</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>100%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>之间的随机伤害。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接箭头连接符 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990850" y="34804350"/>
+          <a:ext cx="1752600" cy="11582400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466498</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>123735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="46624875"/>
+          <a:ext cx="1819048" cy="723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>380606</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>57020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="47872650"/>
+          <a:ext cx="3152381" cy="1038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>360346</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5305426" y="49549050"/>
+          <a:ext cx="2598720" cy="4733925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接箭头连接符 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6819900" y="50349150"/>
+          <a:ext cx="1419225" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直接箭头连接符 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6934200" y="50996850"/>
+          <a:ext cx="1257300" cy="1114427"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>133353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接箭头连接符 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7096125" y="51492150"/>
+          <a:ext cx="1085850" cy="933453"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>142879</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直接箭头连接符 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6829425" y="52035075"/>
+          <a:ext cx="1343025" cy="581029"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403195</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="图片 80"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="54873526"/>
+          <a:ext cx="2698720" cy="4781550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接箭头连接符 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6886575" y="55311675"/>
+          <a:ext cx="1362075" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直接箭头连接符 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6686550" y="55768875"/>
+          <a:ext cx="1504950" cy="809626"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直接箭头连接符 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6562725" y="56578500"/>
+          <a:ext cx="1619250" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直接箭头连接符 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11925300" y="56054625"/>
+          <a:ext cx="971550" cy="1419226"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>124014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="图片 85"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9648825" y="58150126"/>
+          <a:ext cx="1085850" cy="1505138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>82966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="图片 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9639300" y="60140850"/>
+          <a:ext cx="2628899" cy="4721641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直接箭头连接符 88"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="59007375"/>
+          <a:ext cx="2171700" cy="6496050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="矩形 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="55483125"/>
+          <a:ext cx="238125" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>20734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="图片 93"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="67341750"/>
+          <a:ext cx="2447925" cy="3973609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直接箭头连接符 95"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6819900" y="68056125"/>
+          <a:ext cx="1362075" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直接箭头连接符 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6858000" y="69084825"/>
+          <a:ext cx="1285875" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直接箭头连接符 98"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6934200" y="69618225"/>
+          <a:ext cx="1257300" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直接箭头连接符 100"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7115175" y="70132575"/>
+          <a:ext cx="1095375" cy="419101"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直接箭头连接符 103"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7029450" y="70665975"/>
+          <a:ext cx="1095375" cy="419101"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>618910</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>9299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="图片 104"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12611100" y="61350525"/>
+          <a:ext cx="1723810" cy="1809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22324,20 +23721,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>256688</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>94801</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>656969</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161742</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22350,8 +23747,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14192250" y="1438275"/>
-          <a:ext cx="3895238" cy="3590476"/>
+          <a:off x="847725" y="7791450"/>
+          <a:ext cx="2047619" cy="1466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22362,152 +23759,59 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>66581</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114218</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>7567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="12" name="图片 11" descr="å°ç¢çæ5å+ç´ å+å¶æºå¶è¯¦è§£ äºå¤§å+ç´ ç¸çç¸å+"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18516600" y="3124200"/>
-          <a:ext cx="752381" cy="657143"/>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647701" y="10296526"/>
+          <a:ext cx="3390900" cy="2426916"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>418762</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>37725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17602200" y="4143375"/>
-          <a:ext cx="2704762" cy="3000000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>238010</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38005</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19888200" y="3124200"/>
-          <a:ext cx="923810" cy="761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>675359</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>161093</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9477375"/>
-          <a:ext cx="7323809" cy="6657143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -22862,7 +24166,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22880,7 +24184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
@@ -23474,26 +24778,26 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B170" s="41" t="s">
+      <c r="B170" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="C170" s="42"/>
-      <c r="D170" s="42"/>
-      <c r="E170" s="42"/>
-      <c r="F170" s="42"/>
-      <c r="G170" s="42"/>
-      <c r="H170" s="42"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="41"/>
+      <c r="E170" s="41"/>
+      <c r="F170" s="41"/>
+      <c r="G170" s="41"/>
+      <c r="H170" s="41"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B171" s="42"/>
-      <c r="C171" s="42" t="s">
+      <c r="B171" s="41"/>
+      <c r="C171" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D171" s="42"/>
-      <c r="E171" s="42"/>
-      <c r="F171" s="42"/>
-      <c r="G171" s="42"/>
-      <c r="H171" s="42"/>
+      <c r="D171" s="41"/>
+      <c r="E171" s="41"/>
+      <c r="F171" s="41"/>
+      <c r="G171" s="41"/>
+      <c r="H171" s="41"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B173" s="2" t="s">
@@ -23527,8 +24831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA564"/>
   <sheetViews>
-    <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="H542" sqref="H542"/>
+    <sheetView topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="E545" sqref="E545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24107,7 +25411,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
@@ -24425,12 +25729,12 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C256" s="2" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B258" s="2" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
     </row>
     <row r="259" spans="2:18" x14ac:dyDescent="0.2">
@@ -24480,7 +25784,7 @@
     </row>
     <row r="262" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C262" s="21" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="D262" s="21">
         <v>0</v>
@@ -24528,17 +25832,17 @@
     </row>
     <row r="269" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C269" s="2" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
     </row>
     <row r="270" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C270" s="2" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
     </row>
     <row r="271" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B271" s="2" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
     </row>
     <row r="272" spans="2:18" x14ac:dyDescent="0.2">
@@ -24578,7 +25882,7 @@
     </row>
     <row r="273" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C273" s="21" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="D273" s="21" t="s">
         <v>224</v>
@@ -24613,7 +25917,7 @@
     </row>
     <row r="274" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C274" s="21" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="D274" s="21" t="s">
         <v>224</v>
@@ -24657,60 +25961,60 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F350" s="47"/>
+      <c r="F350" s="43"/>
     </row>
     <row r="351" spans="1:6" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="B351" s="52"/>
+        <v>391</v>
+      </c>
+      <c r="B351" s="48"/>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B354" s="2" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B357" s="2" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B358" s="2" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B360" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="C360" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="D360" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="E360" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="F360" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="G360" s="49" t="s">
-        <v>365</v>
-      </c>
-      <c r="H360" s="48" t="s">
-        <v>363</v>
+      <c r="B360" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="C360" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="D360" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="E360" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="F360" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="G360" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="H360" s="44" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
@@ -24718,10 +26022,10 @@
         <v>10001</v>
       </c>
       <c r="C361" s="21" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="E361" s="21">
         <v>6</v>
@@ -24734,7 +26038,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B365" s="2" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="G365" s="2" t="s">
         <v>271</v>
@@ -24742,150 +26046,150 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C366" s="2" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C367" s="2" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C368" s="2" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
     </row>
     <row r="369" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D369" s="2" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
     </row>
     <row r="370" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D370" s="2" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
     </row>
     <row r="372" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C372" s="2" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
     </row>
     <row r="382" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I382" s="2" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
     </row>
     <row r="384" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I384" s="2" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
     </row>
     <row r="387" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I387" s="2" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
     </row>
     <row r="389" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I389" s="2" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
     </row>
     <row r="392" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I392" s="2" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
     </row>
     <row r="395" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I395" s="2" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
     </row>
     <row r="397" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I397" s="2" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I413" s="2" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I414" s="2" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J415" s="2" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J416" s="2" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
     </row>
     <row r="417" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K417" s="2" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
     </row>
     <row r="418" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K418" s="2" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
     </row>
     <row r="419" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K419" s="2" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
     </row>
     <row r="420" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K420" s="2" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
     </row>
     <row r="421" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K421" s="2" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
     </row>
     <row r="425" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I425" s="2" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
     </row>
     <row r="428" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I428" s="2" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
     </row>
     <row r="429" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I429" s="2" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
     </row>
     <row r="430" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I430" s="2" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
     </row>
     <row r="431" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I431" s="2" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
     </row>
     <row r="434" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O434" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="P434" s="51" t="s">
-        <v>395</v>
+      <c r="O434" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="P434" s="47" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="435" spans="9:16" x14ac:dyDescent="0.2">
@@ -24893,7 +26197,7 @@
         <v>1</v>
       </c>
       <c r="P435" s="21" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
     </row>
     <row r="436" spans="9:16" x14ac:dyDescent="0.2">
@@ -24901,7 +26205,7 @@
         <v>2</v>
       </c>
       <c r="P436" s="21" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
     </row>
     <row r="437" spans="9:16" x14ac:dyDescent="0.2">
@@ -24909,7 +26213,7 @@
         <v>3</v>
       </c>
       <c r="P437" s="21" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
     </row>
     <row r="438" spans="9:16" x14ac:dyDescent="0.2">
@@ -24917,278 +26221,278 @@
         <v>4</v>
       </c>
       <c r="P438" s="21" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
     </row>
     <row r="446" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I446" s="2" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
     </row>
     <row r="449" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I449" s="2" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
     </row>
     <row r="450" spans="9:26" x14ac:dyDescent="0.2">
       <c r="J450" s="2" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
     </row>
     <row r="454" spans="9:26" x14ac:dyDescent="0.2">
       <c r="X454" s="2" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
     </row>
     <row r="455" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y455" s="2" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
     </row>
     <row r="456" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y456" s="2" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
     </row>
     <row r="457" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y457" s="2" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
     </row>
     <row r="458" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y458" s="2" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
     </row>
     <row r="459" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Z459" s="2" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
     </row>
     <row r="460" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Z460" s="2" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
     </row>
     <row r="461" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Z461" s="2" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
     </row>
     <row r="462" spans="9:26" x14ac:dyDescent="0.2">
       <c r="Y462" s="2" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
     </row>
     <row r="464" spans="9:26" x14ac:dyDescent="0.2">
       <c r="X464" s="2" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
     </row>
     <row r="466" spans="9:25" x14ac:dyDescent="0.2">
       <c r="I466" s="2" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="X466" s="2" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
     </row>
     <row r="467" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J467" s="2" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
     </row>
     <row r="468" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J468" s="2" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="X468" s="2" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
     </row>
     <row r="469" spans="9:25" x14ac:dyDescent="0.2">
       <c r="Y469" s="2" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
     </row>
     <row r="470" spans="9:25" x14ac:dyDescent="0.2">
       <c r="I470" s="2" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="Y470" s="2" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
     </row>
     <row r="471" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J471" s="2" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
     </row>
     <row r="472" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J472" s="2" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
     </row>
     <row r="474" spans="9:25" x14ac:dyDescent="0.2">
       <c r="I474" s="2" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
     </row>
     <row r="475" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J475" s="2" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
     </row>
     <row r="476" spans="9:25" x14ac:dyDescent="0.2">
       <c r="J476" s="2" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B497" s="2" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C498" s="2" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C499" s="2" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D500" s="2" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D501" s="2" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B503" s="2" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C504" s="2" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B507" s="2" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
     </row>
     <row r="508" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C508" s="2" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
     </row>
     <row r="510" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B510" s="2" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C511" s="2" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C512" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="514" spans="1:27" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A514" s="54" t="s">
-        <v>489</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="514" spans="1:27" s="49" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A514" s="50" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="516" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>441</v>
+        <v>394</v>
       </c>
     </row>
     <row r="517" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B517" s="2" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="AA517" s="2" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
     </row>
     <row r="519" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="Q519" s="1" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
     </row>
     <row r="520" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B520" s="2" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="R520" s="2" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="AA520" s="2" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
     </row>
     <row r="521" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B521" s="2" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="R521" s="2" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
     </row>
     <row r="522" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B522" s="2" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="AA522" s="2" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
     </row>
     <row r="523" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B523" s="1" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
     </row>
     <row r="524" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C524" s="2" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
     </row>
     <row r="525" spans="1:27" x14ac:dyDescent="0.2">
       <c r="Q525" s="1" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
     </row>
     <row r="526" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C526" s="51" t="s">
-        <v>456</v>
-      </c>
-      <c r="D526" s="51" t="s">
-        <v>457</v>
-      </c>
-      <c r="E526" s="51" t="s">
-        <v>458</v>
+      <c r="C526" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="D526" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="E526" s="47" t="s">
+        <v>411</v>
       </c>
       <c r="R526" s="2" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
     </row>
     <row r="527" spans="1:27" x14ac:dyDescent="0.2">
@@ -25201,7 +26505,7 @@
       <c r="E527" s="21"/>
       <c r="P527"/>
       <c r="R527" s="2" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
     </row>
     <row r="528" spans="1:27" x14ac:dyDescent="0.2">
@@ -25222,7 +26526,7 @@
       </c>
       <c r="E529" s="21"/>
       <c r="U529" s="2" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
     </row>
     <row r="530" spans="1:21" x14ac:dyDescent="0.2">
@@ -25245,23 +26549,23 @@
     </row>
     <row r="533" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C533" s="2" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
     </row>
     <row r="534" spans="1:21" x14ac:dyDescent="0.2">
       <c r="U534" s="2" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
     </row>
     <row r="535" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C535" s="50" t="s">
-        <v>459</v>
-      </c>
-      <c r="D535" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="E535" s="51" t="s">
-        <v>461</v>
+      <c r="C535" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="D535" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="E535" s="47" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="536" spans="1:21" x14ac:dyDescent="0.2">
@@ -25300,7 +26604,7 @@
       </c>
       <c r="E539" s="21"/>
       <c r="Q539" s="2" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
     </row>
     <row r="540" spans="1:21" x14ac:dyDescent="0.2">
@@ -25314,59 +26618,59 @@
     </row>
     <row r="542" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="Q542" s="1" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
     </row>
     <row r="543" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B543" s="2" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="R543" s="2" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
     </row>
     <row r="544" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B544" s="2" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="R544" s="2" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B545" s="2" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B548" s="2" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
     </row>
     <row r="549" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B549" s="2" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q558" s="1" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R559" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="564" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="564" s="49" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25377,10 +26681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z238"/>
+  <dimension ref="A1:AA390"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N293" sqref="N293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25390,432 +26694,690 @@
     <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="55" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>490</v>
+    <row r="1" spans="1:10" s="51" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H6" s="1" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I7" s="2" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I8" s="2" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" s="2" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H11" s="1" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I12" s="1" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J13" s="2" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J14" s="2" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J16" s="1" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="9:21" x14ac:dyDescent="0.2">
       <c r="L18" s="2" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="9:21" x14ac:dyDescent="0.2">
       <c r="L19" s="2" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I24" s="1" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="9:21" x14ac:dyDescent="0.2">
       <c r="J25" s="2" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="9:21" x14ac:dyDescent="0.2">
       <c r="J26" s="2" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="9:21" x14ac:dyDescent="0.2">
       <c r="J28" s="1" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="9:21" x14ac:dyDescent="0.2">
       <c r="N30" s="2" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="9:21" x14ac:dyDescent="0.2">
       <c r="N31" s="2" t="s">
-        <v>513</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="9:21" x14ac:dyDescent="0.2">
       <c r="N32" s="2" t="s">
-        <v>514</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.2">
       <c r="N33" s="2" t="s">
-        <v>515</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.2">
       <c r="N34" s="2" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I43" s="1" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J44" s="2" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J45" s="2" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J46" s="2" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J47" s="2" t="s">
-        <v>506</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="9:14" x14ac:dyDescent="0.2">
       <c r="J48" s="2" t="s">
-        <v>507</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="10:24" x14ac:dyDescent="0.2">
       <c r="Q49" s="1" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J50" s="2" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="10:24" x14ac:dyDescent="0.2">
       <c r="N53" s="2" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="10:24" x14ac:dyDescent="0.2">
       <c r="N54" s="2" t="s">
-        <v>513</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="10:24" x14ac:dyDescent="0.2">
       <c r="N55" s="2" t="s">
-        <v>514</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="10:24" x14ac:dyDescent="0.2">
       <c r="N56" s="2" t="s">
-        <v>515</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="10:24" x14ac:dyDescent="0.2">
       <c r="N57" s="2" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="10:24" x14ac:dyDescent="0.2">
       <c r="X60" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="56" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A125" s="54" t="s">
-        <v>522</v>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="52" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" s="49" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A125" s="50" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A158" s="54" t="s">
-        <v>526</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" s="49" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A158" s="50" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="162" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H162" s="2" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
     </row>
     <row r="163" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H163" s="2" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
     </row>
     <row r="164" spans="8:17" x14ac:dyDescent="0.2">
       <c r="Q164" s="2" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="8:17" x14ac:dyDescent="0.2">
       <c r="Q165" s="2" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
     </row>
     <row r="166" spans="8:17" x14ac:dyDescent="0.2">
       <c r="Q166" s="2" t="s">
-        <v>533</v>
+        <v>486</v>
       </c>
     </row>
     <row r="172" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H172" s="2" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
     </row>
     <row r="174" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H174" s="2" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
     </row>
     <row r="175" spans="8:17" x14ac:dyDescent="0.2">
       <c r="Q175" s="2" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
     </row>
     <row r="187" spans="8:17" x14ac:dyDescent="0.2">
       <c r="Q187" s="2" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
     </row>
     <row r="192" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H192" s="1" t="s">
-        <v>540</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" spans="8:14" x14ac:dyDescent="0.2">
       <c r="I193" s="2" t="s">
-        <v>539</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="8:14" x14ac:dyDescent="0.2">
       <c r="I194" s="2" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
     </row>
     <row r="195" spans="8:14" x14ac:dyDescent="0.2">
       <c r="I195" s="2" t="s">
-        <v>537</v>
+        <v>490</v>
       </c>
     </row>
     <row r="196" spans="8:14" x14ac:dyDescent="0.2">
       <c r="I196" s="2" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
     </row>
     <row r="198" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H198" s="1" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
     </row>
     <row r="199" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H199" s="2" t="s">
-        <v>543</v>
+        <v>496</v>
       </c>
     </row>
     <row r="200" spans="8:14" x14ac:dyDescent="0.2">
       <c r="I200" s="2" t="s">
-        <v>542</v>
+        <v>495</v>
       </c>
     </row>
     <row r="201" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H201" s="2" t="s">
-        <v>544</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="8:14" x14ac:dyDescent="0.2">
       <c r="I202" s="2" t="s">
-        <v>545</v>
+        <v>498</v>
       </c>
     </row>
     <row r="204" spans="8:14" x14ac:dyDescent="0.2">
       <c r="M204" s="2" t="s">
-        <v>546</v>
+        <v>499</v>
       </c>
     </row>
     <row r="205" spans="8:14" x14ac:dyDescent="0.2">
       <c r="N205" s="2" t="s">
-        <v>547</v>
+        <v>500</v>
       </c>
     </row>
     <row r="206" spans="8:14" x14ac:dyDescent="0.2">
       <c r="M206" s="2" t="s">
-        <v>548</v>
+        <v>501</v>
       </c>
     </row>
     <row r="207" spans="8:14" x14ac:dyDescent="0.2">
       <c r="N207" s="2" t="s">
-        <v>549</v>
+        <v>502</v>
       </c>
     </row>
     <row r="218" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H218" s="1" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
     </row>
     <row r="219" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I219" s="2" t="s">
-        <v>551</v>
+        <v>504</v>
       </c>
     </row>
     <row r="220" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I220" s="2" t="s">
-        <v>552</v>
+        <v>505</v>
       </c>
     </row>
     <row r="221" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J221" s="2" t="s">
-        <v>569</v>
+        <v>522</v>
       </c>
     </row>
     <row r="222" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J222" s="2" t="s">
-        <v>553</v>
+        <v>506</v>
       </c>
     </row>
     <row r="223" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="K223" s="65" t="s">
-        <v>554</v>
+      <c r="K223" s="53" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="224" spans="8:12" x14ac:dyDescent="0.2">
       <c r="L224" s="2" t="s">
-        <v>555</v>
+        <v>508</v>
       </c>
     </row>
     <row r="225" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L225" s="2" t="s">
-        <v>556</v>
+        <v>509</v>
       </c>
     </row>
     <row r="226" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L226" s="2" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
     </row>
     <row r="227" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K227" s="2" t="s">
-        <v>557</v>
+        <v>510</v>
       </c>
     </row>
     <row r="228" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L228" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="Z228" s="66"/>
+        <v>511</v>
+      </c>
+      <c r="Z228" s="54"/>
     </row>
     <row r="229" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L229" s="2" t="s">
-        <v>559</v>
+        <v>512</v>
       </c>
     </row>
     <row r="230" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L230" s="2" t="s">
-        <v>566</v>
+        <v>519</v>
       </c>
     </row>
     <row r="231" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K231" s="2" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
     </row>
     <row r="232" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L232" s="2" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
     </row>
     <row r="233" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L233" s="2" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
     </row>
     <row r="234" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L234" s="2" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
     </row>
     <row r="235" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K235" s="2" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
     </row>
     <row r="236" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L236" s="2" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
     </row>
     <row r="237" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L237" s="2" t="s">
-        <v>570</v>
+        <v>523</v>
       </c>
     </row>
     <row r="238" spans="11:26" x14ac:dyDescent="0.2">
       <c r="L238" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="241" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H241" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="242" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="I242" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="245" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H245" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="246" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="K246" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="253" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="K253" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="254" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L254" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="256" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H256" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="258" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="K258" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="271" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H271" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="272" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="I272" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="277" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M277" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="278" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M278" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="281" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M281" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="284" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M284" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="285" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M285" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="287" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M287" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="288" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="N288" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="289" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="O289" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="290" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="N290" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="291" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="O291" s="2" t="s">
         <v>567</v>
+      </c>
+    </row>
+    <row r="301" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H301" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="302" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="I302" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="305" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M305" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="307" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M307" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="308" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M308" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="312" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M312" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="313" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="M313" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="314" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="N314" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="315" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="O315" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="316" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="O316" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="317" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="P317" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="319" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="N319" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA319" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="320" spans="13:27" x14ac:dyDescent="0.2">
+      <c r="O320" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="331" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O331" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="333" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="S333" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="335" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="S335" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="337" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S337" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="361" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N361" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="362" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="O362" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="363" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="P363" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="364" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="P364" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="366" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="O366" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="367" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="P367" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="370" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H370" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="371" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="I371" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="375" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="M375" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="376" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="M376" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="381" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="M381" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="384" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="M384" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="387" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M387" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="390" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M390" s="2" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -25827,474 +27389,320 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9" style="38"/>
-    <col min="9" max="9" width="12.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="38"/>
+    <col min="1" max="1" width="11.375" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9" style="66"/>
+    <col min="9" max="9" width="12.875" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="65" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="67" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="66" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="66" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="66" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="D10" s="66" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="D11" s="66" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="D12" s="66" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="D13" s="66" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="66" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="66" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="66" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="38" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="66" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="38" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="66" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="38" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="66" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="40" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="68" t="s">
         <v>299</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="66" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="66" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>328</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="67" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="66" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="66" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="66" t="s">
+        <v>600</v>
+      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+    </row>
+    <row r="30" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="69"/>
+      <c r="B30" s="42" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="70"/>
+      <c r="B31" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="70"/>
+      <c r="B32" s="67" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>343</v>
+      <c r="A33" s="70"/>
+      <c r="C33" s="66" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>351</v>
+      <c r="A34" s="70"/>
+      <c r="C34" s="70" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="66" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="67" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="66" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C39" s="66" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="70" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="70" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="G43" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="I43" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="J43" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="K43" s="43" t="s">
-        <v>349</v>
-      </c>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="C44" s="43">
-        <v>3</v>
-      </c>
-      <c r="D44" s="43">
-        <v>6</v>
-      </c>
-      <c r="E44" s="43">
-        <v>1</v>
-      </c>
-      <c r="F44" s="43">
-        <v>3</v>
-      </c>
-      <c r="G44" s="43">
-        <v>2</v>
-      </c>
-      <c r="H44" s="43">
-        <v>1</v>
-      </c>
-      <c r="I44" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="J44" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="K44" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="C45" s="43">
-        <v>7</v>
-      </c>
-      <c r="D45" s="43">
-        <v>8</v>
-      </c>
-      <c r="E45" s="43">
-        <v>1</v>
-      </c>
-      <c r="F45" s="43">
-        <v>3</v>
-      </c>
-      <c r="G45" s="43">
-        <v>1</v>
-      </c>
-      <c r="H45" s="43">
-        <v>1</v>
-      </c>
-      <c r="I45" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="J45" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="K45" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="C46" s="43">
-        <v>18</v>
-      </c>
-      <c r="D46" s="43">
-        <v>20</v>
-      </c>
-      <c r="E46" s="43">
-        <v>1</v>
-      </c>
-      <c r="F46" s="43">
-        <v>5</v>
-      </c>
-      <c r="G46" s="43">
-        <v>3</v>
-      </c>
-      <c r="H46" s="43">
-        <v>4</v>
-      </c>
-      <c r="I46" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="J46" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="K46" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="C47" s="43">
-        <v>7</v>
-      </c>
-      <c r="D47" s="43">
-        <v>8</v>
-      </c>
-      <c r="E47" s="43">
-        <v>1</v>
-      </c>
-      <c r="F47" s="43">
-        <v>3</v>
-      </c>
-      <c r="G47" s="43">
-        <v>7</v>
-      </c>
-      <c r="H47" s="43">
-        <v>3</v>
-      </c>
-      <c r="I47" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="J47" s="43" t="s">
-        <v>336</v>
-      </c>
-      <c r="K47" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="C48" s="43">
-        <v>13</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="E48" s="43">
-        <v>1</v>
-      </c>
-      <c r="F48" s="43">
-        <v>5</v>
-      </c>
-      <c r="G48" s="43">
-        <v>8</v>
-      </c>
-      <c r="H48" s="43">
-        <v>0</v>
-      </c>
-      <c r="I48" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="J48" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="K48" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>345</v>
-      </c>
-      <c r="C49" s="43">
-        <v>6</v>
-      </c>
-      <c r="D49" s="43">
-        <v>12</v>
-      </c>
-      <c r="E49" s="43">
-        <v>1</v>
-      </c>
-      <c r="F49" s="43">
-        <v>5</v>
-      </c>
-      <c r="G49" s="43">
-        <v>1</v>
-      </c>
-      <c r="H49" s="43">
-        <v>1</v>
-      </c>
-      <c r="I49" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="J49" s="43" t="s">
-        <v>348</v>
-      </c>
-      <c r="K49" s="43" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+    </row>
+    <row r="45" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="64" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="42" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="64" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -26302,8 +27710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26313,138 +27721,138 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>572</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>576</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>580</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="S13" s="67"/>
+        <v>547</v>
+      </c>
+      <c r="S13" s="55"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="S14" s="67"/>
+        <v>530</v>
+      </c>
+      <c r="S14" s="55"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="S15" s="67"/>
+      <c r="S15" s="55"/>
     </row>
     <row r="17" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="S17" s="67"/>
+      <c r="S17" s="55"/>
     </row>
     <row r="19" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="S19" s="67"/>
+      <c r="S19" s="55"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>584</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>585</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
-        <v>586</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>588</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>589</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>590</v>
+        <v>535</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>591</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>592</v>
+        <v>537</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>593</v>
+        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>595</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>596</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -26488,10 +27896,10 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -26501,8 +27909,8 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
@@ -26510,8 +27918,8 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
@@ -26520,8 +27928,8 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
@@ -26529,8 +27937,8 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -26538,8 +27946,8 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
@@ -26547,8 +27955,8 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -26556,53 +27964,53 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
